--- a/TAI_Metrics_Book.xlsx
+++ b/TAI_Metrics_Book.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29426"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29721"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mgh2v\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{8A0E7AAD-E785-4D97-99F8-03556D16D259}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="81" documentId="8_{8A0E7AAD-E785-4D97-99F8-03556D16D259}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{B09D1531-8772-41EE-9889-05BF6E26ADAA}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="4" xr2:uid="{092FAFF7-1428-4AC3-8AB7-4C9FCB914AE8}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" firstSheet="5" activeTab="6" xr2:uid="{092FAFF7-1428-4AC3-8AB7-4C9FCB914AE8}"/>
   </bookViews>
   <sheets>
     <sheet name="Validity and Reliability" sheetId="1" r:id="rId1"/>
@@ -42,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="967" uniqueCount="347">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1030" uniqueCount="363">
   <si>
     <t>Metric</t>
   </si>
@@ -92,7 +92,7 @@
     <t>Precision</t>
   </si>
   <si>
-    <t>F6</t>
+    <t>F6, F8</t>
   </si>
   <si>
     <t>measures the proportion of correctly predicted positive instances out of all instances the model labeled as positive: 1 implies no false positives, 0 implies all predicted positives are wrong</t>
@@ -310,724 +310,13 @@
     <t>Data completeness</t>
   </si>
   <si>
+    <t>F6</t>
+  </si>
+  <si>
+    <t>refers to the degree to which it contains the necessary information required to accurately model the underlying patterns by the learning algorithm - where γ(di) is 0 if d_i is a missing data, and 1 otherwise</t>
+  </si>
+  <si>
     <t>Data correctness</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Specificity </t>
-  </si>
-  <si>
-    <t>Availability</t>
-  </si>
-  <si>
-    <t>Repeatability</t>
-  </si>
-  <si>
-    <t>Reproducibility</t>
-  </si>
-  <si>
-    <t>Hallucination Detection Accuracy</t>
-  </si>
-  <si>
-    <t>F7</t>
-  </si>
-  <si>
-    <t>GenAI (LLM)</t>
-  </si>
-  <si>
-    <t>The accuracy of the model in distinguishing between factual statements and hallucinated (non-factual) content (e.g., on HaluEval)</t>
-  </si>
-  <si>
-    <t>Measures the model’s ability to produce factually correct answers on truthfulness benchmarks (e.g., TruthfulQA), thereby indicating its capacity to reduce the generation of false beliefs.</t>
-  </si>
-  <si>
-    <t>Macro F1 Score</t>
-  </si>
-  <si>
-    <t>Used for zero-shot fact-checking tasks in misinformation generation integrating external knowledge</t>
-  </si>
-  <si>
-    <t>F8</t>
-  </si>
-  <si>
-    <t>Retrieval Rate</t>
-  </si>
-  <si>
-    <t>System design</t>
-  </si>
-  <si>
-    <t>Model, Dataset</t>
-  </si>
-  <si>
-    <t>Binary - {0,1}</t>
-  </si>
-  <si>
-    <t>Whether a peer-reviews system diagram is available - 0 implies none, 1 implies there is one</t>
-  </si>
-  <si>
-    <t>Data Handling Processes</t>
-  </si>
-  <si>
-    <t>Whether data handling is done using a process that adheres to existing regulations and is well-defined with clear controls - 0 implies there is none, 1 implies there is</t>
-  </si>
-  <si>
-    <t>Data Points Report</t>
-  </si>
-  <si>
-    <t>Whether there is a report telling stating to customers which pieces of data are used in model training- 0 implies there is none, 1 implies there is</t>
-  </si>
-  <si>
-    <t>Data Access Control</t>
-  </si>
-  <si>
-    <t>Whether or not there is system-wide role-based access control \&amp; consent from customers for access to the data- 0 implies there is none, 1 implies there is</t>
-  </si>
-  <si>
-    <t>Touchless Model Training</t>
-  </si>
-  <si>
-    <t>FL</t>
-  </si>
-  <si>
-    <t>Training</t>
-  </si>
-  <si>
-    <t>After the model's architecture is designed, models are trained using automation with no human intervention- 0 implies this is false, 1 implies this is true</t>
-  </si>
-  <si>
-    <t>Refuse to Answer (RtA) Percentage</t>
-  </si>
-  <si>
-    <t>Numeric [0,1]</t>
-  </si>
-  <si>
-    <t>Measures the percentage of instances where LLMs refuse to answer in contexts like jailbreak</t>
-  </si>
-  <si>
-    <t>Toxicity Score</t>
-  </si>
-  <si>
-    <t>Obtained from Perspective API to quantify toxicity in outputs after successful jailbreaks</t>
-  </si>
-  <si>
-    <t>Used for evaluating implicit ethics on datasets like ETHICS and SOCIAL CHEMISTRY 101, and for low-ambiguity scenarios in explicit ethics</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Scope </t>
-  </si>
-  <si>
-    <t>Access Control</t>
-  </si>
-  <si>
-    <t>Environment</t>
-  </si>
-  <si>
-    <t>Whether there is an access control system- 0 implies there is none, 1 implies there is</t>
-  </si>
-  <si>
-    <t>Tiered Access</t>
-  </si>
-  <si>
-    <t>Whether the access control system has tiered access with minimum responsibility- 0 implies there is none, 1 implies there is</t>
-  </si>
-  <si>
-    <t>Data Isolation</t>
-  </si>
-  <si>
-    <t>Whether the data and system is kept separate from unauthorized people and systems- 0 implies no separation, 1 implies separation</t>
-  </si>
-  <si>
-    <t>Confidence Score</t>
-  </si>
-  <si>
-    <t>F2</t>
-  </si>
-  <si>
-    <t>probability of correctly predicting samples. Thrs are the probabilities that one vector is classified correctly, T are the labels. 0 implies no true positives were achieved, 1 implies no false positives or false negatives across all thresholds.</t>
-  </si>
-  <si>
-    <t>Loss Sensitivity</t>
-  </si>
-  <si>
-    <t>DL, LLM</t>
-  </si>
-  <si>
-    <t>calculates the largest variation of the output of a Neural Network under a small change of the input</t>
-  </si>
-  <si>
-    <t>Cross Lipschitz Extreme Value for Network Robustness</t>
-  </si>
-  <si>
-    <t>using Lipschitz continuity and extreme value theory to measure and improve the robustness of neural networks against adversarial attacks, large value strong robustness, small value implies weak robustness, 0 implies an adversarial example can be found with arbitrarily small perturbation</t>
-  </si>
-  <si>
-    <t>Clique Method</t>
-  </si>
-  <si>
-    <t xml:space="preserve">finds the exact minimal adversarial perturbation of a guaranteed lower bound of it (Decision Tree, Random Forest, Gradient Boosted Decision Trees)- Large clique implies strong local robustness, Small clique implies weak robustness, Minimal perturbation estimate = distance to first point outside the clique </t>
-  </si>
-  <si>
-    <t>Empirical Robustness</t>
-  </si>
-  <si>
-    <t>F2, F3</t>
-  </si>
-  <si>
-    <t>measures if small changes in the input data cause significant output deviations. C = trained classifier, rho = an untargeted attack, X is the test data, and rho(x_i) = the first adversarial inputs. Adversarial inputs calculated using Carlini Wagner, Fast Gradient, and DeepFool; ER large implies strong robustness -The model requires a large perturbation to misclassify typical inputs. ER small implies weak robustness- Only a tiny perturbation is needed to fool the model. ER = 0 implies completely non-robust- The smallest possible change flips the prediction.</t>
-  </si>
-  <si>
-    <t>Poisoning Defense</t>
-  </si>
-  <si>
-    <t>Training, Testing</t>
-  </si>
-  <si>
-    <t>focuses on providing defense mechanisms against poisoning attacks. M(D) = model performance on clean data, M(D U D_p) = model performance when trained on poisoned data- 0 implies complete failure against poisoning, 1 implies full resistance</t>
-  </si>
-  <si>
-    <t>Certified Robustness</t>
-  </si>
-  <si>
-    <t>Numeric- Real</t>
-  </si>
-  <si>
-    <t xml:space="preserve">defines the least amount of perturbation required for the attacker to succeed (change the model) - 0 implies no robustness; vulnerable to any perturbation, Small implies weak robustness; small perturbations tolerated, large implies strong robustness; large perturbations tolerated </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Testing Coverage </t>
-  </si>
-  <si>
-    <t>guarantees that clients adhere to federation requirements (broadcasting messages to distributed clients, client selection, model aggregation), 0 implies none of the elements are tested, 1 implies all elements are tested</t>
-  </si>
-  <si>
-    <t>System Reliability</t>
-  </si>
-  <si>
-    <t xml:space="preserve">deals with the probability and duration of time of failure-free operation. T = random variable representing time to failure, t = specific time, P(T&gt;t) = probability the system survives beyond t - 0 implies system is certain to fail by time t, 1 implies system is certain to work up to time t </t>
-  </si>
-  <si>
-    <t>Personalization</t>
-  </si>
-  <si>
-    <t>adapting the behavior or output of an AI system to meet the unique needs, preferences, or characteristics of a particular user or group of users- 0 implies no personalization, 1 implies there is</t>
-  </si>
-  <si>
-    <t>Federation Scale</t>
-  </si>
-  <si>
-    <t>Numeric- Integer</t>
-  </si>
-  <si>
-    <t>number of clients (devices)</t>
-  </si>
-  <si>
-    <t>Count(clients)</t>
-  </si>
-  <si>
-    <t>Client Reputation</t>
-  </si>
-  <si>
-    <t>a measure of how trustworthy or reliable a particular client is in contributing accurate and high-quality updates to the global model</t>
-  </si>
-  <si>
-    <t>Number of positive interactions / Total interactions</t>
-  </si>
-  <si>
-    <t>Data Quality</t>
-  </si>
-  <si>
-    <t xml:space="preserve">compares, in each training round, the local updates with the current global model to see if the new local updates are better or worse than the global model if one client improves the performance of the global model, then the data of that client has a high-quality score.  Q_i= score of the i-th data quality dimension (normalized between 0 and 1), w_i= weight of that dimension, n = total number of quality dimensions considered </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Potential Robustness </t>
-  </si>
-  <si>
-    <t>Gives an indication about the strength of the hypothesis that the ML model performs  better on any given external dataset than the worst possible outcome that could be obtained from the internal validation one</t>
-  </si>
-  <si>
-    <t>Gini Coefficient for Sustainability</t>
-  </si>
-  <si>
-    <t>comparing predictive accuracy, as measured by Shapley–Lorenz values, in different ordered subset the data, possibly altered artificially by anomalous or cyber manipulated ones; LZ(V_{G}^{SL_*}) is the gini coefficient on the vector V_{G}^{SL_*}</t>
-  </si>
-  <si>
-    <t>Robustness Rate</t>
-  </si>
-  <si>
-    <t>Measures the stability of the model's performance when subjected to adversarial inputs or noise compared to its performance on clean data.</t>
-  </si>
-  <si>
-    <t>Attack Success Rate (ASR)</t>
-  </si>
-  <si>
-    <t>OOD Robustness</t>
-  </si>
-  <si>
-    <t>Data Usage Report</t>
-  </si>
-  <si>
-    <t>D&amp;D, Training</t>
-  </si>
-  <si>
-    <t>whether there is a report that informs users what data was used in the training phase- 0 implies there is no report, 1 implies there is</t>
-  </si>
-  <si>
-    <t>Train/Test Split</t>
-  </si>
-  <si>
-    <t>Numeric- percentage [0-100]</t>
-  </si>
-  <si>
-    <t>measures the ratio between the number of samples used for training and testing; if the training and testing dataset do not contain enough representative data, the model will not perform well, it will not be able to generalize, and the predictions will not be reliable</t>
-  </si>
-  <si>
-    <t>Missing Data</t>
-  </si>
-  <si>
-    <t>evaluates how missing values of features of the training dataset are handled, number of missing variables</t>
-  </si>
-  <si>
-    <t>Normalization</t>
-  </si>
-  <si>
-    <t>Categorical - Name</t>
-  </si>
-  <si>
-    <t>evaluates if some models have been trained with normalized or non-normalized data; helps mitigating the effects of outliers and ensures that features values are in the same range</t>
-  </si>
-  <si>
-    <t>Regularization</t>
-  </si>
-  <si>
-    <t>ML, DL, FL, LLM</t>
-  </si>
-  <si>
-    <t>Categorical- Name</t>
-  </si>
-  <si>
-    <t>measures if the ML/DL model used generalization techniques during training; avoids model parameters taking extreme values, and is necessary to avoid memorization during training NN with millions of parameters</t>
-  </si>
-  <si>
-    <t>FactSheet Completeness</t>
-  </si>
-  <si>
-    <t>measures if all needed information is included in the IBM FactSheet for stakeholders</t>
-  </si>
-  <si>
-    <t>Project Specification</t>
-  </si>
-  <si>
-    <t>section of the IBM Factsheet that documents the project overview, purpose, &amp; background</t>
-  </si>
-  <si>
-    <t>Participants</t>
-  </si>
-  <si>
-    <t>contains the participants of the FL process  (IBM FactSheet)</t>
-  </si>
-  <si>
-    <t>Data</t>
-  </si>
-  <si>
-    <t>documents the info regarding the data used in the FL process (IBM FactSheet)</t>
-  </si>
-  <si>
-    <t>Configuration</t>
-  </si>
-  <si>
-    <t>deals with the info about the FL model configuration (IBM FactSheet)</t>
-  </si>
-  <si>
-    <t>System</t>
-  </si>
-  <si>
-    <t>documents the system info for the learning process (IBM Factsheet)</t>
-  </si>
-  <si>
-    <t>Algorithmic Auditing</t>
-  </si>
-  <si>
-    <t>the process of systematically examining and evaluating algorithms—particularly machine learning models or decision-making systems—to ensure they are fair, accountable, transparent,and aligned with ethical and legal standards.</t>
-  </si>
-  <si>
-    <t>Inference Explanation</t>
-  </si>
-  <si>
-    <t>Numeric- Percentage (0-100)</t>
-  </si>
-  <si>
-    <t>Identification of the most important component if the inference results</t>
-  </si>
-  <si>
-    <t>Percentage of importance of the inference component</t>
-  </si>
-  <si>
-    <t>Present Similar Records</t>
-  </si>
-  <si>
-    <t>How similar is the explanation with the other inferences explanations?  - Higher number indicates a higher percentage of similar records</t>
-  </si>
-  <si>
-    <t>Number of Similar Records / Total Number of Records</t>
-  </si>
-  <si>
-    <t>Total Inferences (Number of Explanations</t>
-  </si>
-  <si>
-    <t>Numeric</t>
-  </si>
-  <si>
-    <t>The ratio of number of explanations to total number of explainable records- Higher number indicates higher explanation coverage</t>
-  </si>
-  <si>
-    <t>Number of Explanations / Number of Explainable Records</t>
-  </si>
-  <si>
-    <t>Algorithm Class</t>
-  </si>
-  <si>
-    <t>Categorical- Names or Integer [1,5]</t>
-  </si>
-  <si>
-    <t>a category or family of algorithms that share similar structures, objectives, or methods for solving a specific type of problem</t>
-  </si>
-  <si>
-    <t>Correlated Features</t>
-  </si>
-  <si>
-    <t>Numeric- percentage (0-100)</t>
-  </si>
-  <si>
-    <t>measures the percentage of highly correlated features; high correlation among features might lead to biases in most explanation techniques</t>
-  </si>
-  <si>
-    <t>Pearson, Spearman, Kendall-Tau, etc.</t>
-  </si>
-  <si>
-    <t>Feature Relevance (Feature Importance)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Numeric- percentage (0-100) </t>
-  </si>
-  <si>
-    <t>Calculates the percentage of irrelevant features for a set of predictions. Lower irrelevant features is better due to the fact that more of them would lead to more complex explanations</t>
-  </si>
-  <si>
-    <t>Shapley value, Attention value, coeffiecicent value, etc.</t>
-  </si>
-  <si>
-    <t>Model Size</t>
-  </si>
-  <si>
-    <t>Indicates the number of parameters used by the models</t>
-  </si>
-  <si>
-    <t>Algorithmic Transparency</t>
-  </si>
-  <si>
-    <t>Categorical- Integer [1,5]</t>
-  </si>
-  <si>
-    <t>the degree to which the internal workings, decision-making processes, and outputs of an algorithm can be understood, explained, and scrutinized by stakeholders such as developers, users, regulators, and impacted individuals; 1- least transparent, 5- most transparent</t>
-  </si>
-  <si>
-    <t>Value provided by Sanchez et al.</t>
-  </si>
-  <si>
-    <t>Simplification</t>
-  </si>
-  <si>
-    <t>Binary- {0,1}</t>
-  </si>
-  <si>
-    <t>reducing the number of of architectural elements or parameters in a model withouot affecting the model's performance or with a negilible loss; Was simplification done of not?</t>
-  </si>
-  <si>
-    <t>Distillation, Quantization, etc.</t>
-  </si>
-  <si>
-    <t>Visualization</t>
-  </si>
-  <si>
-    <t>ALL (w/o D&amp;D)</t>
-  </si>
-  <si>
-    <t>a lifecycle dashboard that visualizes server info, from client registration to training, validation, and deployment; Was there a comprehensive dashboard or not?</t>
-  </si>
-  <si>
-    <t>Benefit Diagram</t>
-  </si>
-  <si>
-    <t>a type of scatterplot that shows how much AI support helps or harms decision-making</t>
-  </si>
-  <si>
-    <t>Explainability Score</t>
-  </si>
-  <si>
-    <t>a measure of the response variable mutual variability explained by each predictor, normalised in the interval [0, 1]; LZ(Y) corresponds to the response variable Y Lorenz Zonoid value and SL_k is the Shapley-Lorenz values for the kth predictor</t>
-  </si>
-  <si>
-    <t>Fidelity</t>
-  </si>
-  <si>
-    <t>XAI Method</t>
-  </si>
-  <si>
-    <t>is defined as the model's confidence score (f(x)) in its original prediction after the top-ranked features identified by the explanation method have been modified or masked (f(x\S)). The value range is in the interval of [0,1], score closer to 0 is better.</t>
-  </si>
-  <si>
-    <t>Faithfulness</t>
-  </si>
-  <si>
-    <t>Monotonicity</t>
-  </si>
-  <si>
-    <t>Sensitivity</t>
-  </si>
-  <si>
-    <t>Legal &amp; Privacy Frameworks</t>
-  </si>
-  <si>
-    <t>Is there a design and implementation of legal, privacy, and responsibility frameworks? 0 indicates there is none, 1 implies there is</t>
-  </si>
-  <si>
-    <t>De-identification of Data</t>
-  </si>
-  <si>
-    <t>Has the data been made such that identification is not possible? 0 indicates the data has not been de-identified, 1 indicates that it has</t>
-  </si>
-  <si>
-    <t>Privacy Training</t>
-  </si>
-  <si>
-    <t>Have the people involved with the system undergone privacy training? 0 indicates there has been no training, 1 indicates there has been training</t>
-  </si>
-  <si>
-    <t>Perturbation</t>
-  </si>
-  <si>
-    <t>Testing, Deployment</t>
-  </si>
-  <si>
-    <t>Adds noise to raw data in order to make the perturbed data indistinguishable from the raw data. 0 implies there is perturbation, 1 implies there is not</t>
-  </si>
-  <si>
-    <t>Encryption</t>
-  </si>
-  <si>
-    <t>Encrypts model parameters of each participant before sharing it. 0 implies there is encryption. 1 implies there is not</t>
-  </si>
-  <si>
-    <t>Anonymization</t>
-  </si>
-  <si>
-    <t>A data processing technique that transforms data in such a way that the identities of individuals cannot be determined, even when the data is combined with other sources- 0 implies there is anonymization, 1 implies there is no</t>
-  </si>
-  <si>
-    <t>H-MINE</t>
-  </si>
-  <si>
-    <t>H-Mine is a memory-efficient algorithm for discovering frequent itemsets in large datasets. It avoids building expensive structures like FP-trees and instead uses a lightweight H-struct (Hyper-Structure) to mine patterns efficiently</t>
-  </si>
-  <si>
-    <t>See Pei et al.</t>
-  </si>
-  <si>
-    <t>Amount of Leaked Information</t>
-  </si>
-  <si>
-    <t>Counting the number of items that have been disclosed by the AI system; the higher the number the more information that has been leaked by the system.</t>
-  </si>
-  <si>
-    <t>Relative Entropy</t>
-  </si>
-  <si>
-    <t>The distance between two probability distributions;measures how much information is lost when q is used to approximate p; p(x) is the true or reference distribution, q(x) is the approximate or comparison distribution; always non-negative and equals 0 only when p(x)=q(x) almost everywhere.</t>
-  </si>
-  <si>
-    <t>Mutual Information</t>
-  </si>
-  <si>
-    <t>X</t>
-  </si>
-  <si>
-    <t>evaluating the shared information between two random variables</t>
-  </si>
-  <si>
-    <t>Entropy</t>
-  </si>
-  <si>
-    <t>measures the uncertainty in predicting the value of a random variable. X is a participating client and p(x_i) is the estimated probability of this client being the target - 0 implies no uncertainty, 1 implies maximum uncertainty</t>
-  </si>
-  <si>
-    <t>Global Privacy Risk</t>
-  </si>
-  <si>
-    <t>enables indistinguishability in the training data by adding random noise - 0 implies no privacy risk (fully safe), 0-0.3 implies low privacy risk, 0.3–0.6 implies medium privacy risk, 0.6–1 implies high privacy risk, 1 implies maximum exposure; critical risk</t>
-  </si>
-  <si>
-    <t>Client Registry</t>
-  </si>
-  <si>
-    <t>enables the system to manage client connections and track the status of all client devices</t>
-  </si>
-  <si>
-    <t>Client Selector</t>
-  </si>
-  <si>
-    <t>optimizes resource usage and reduces the risk of client dropout and communication latency; also maintains the client registry in the central server for the client server architecture</t>
-  </si>
-  <si>
-    <t>Model co-versioning</t>
-  </si>
-  <si>
-    <t>aligns the local models with their corresponding aggregated global models</t>
-  </si>
-  <si>
-    <t>Model Replacement</t>
-  </si>
-  <si>
-    <t>detects if the global model performance is dropping below a certain threshold; compares global model performance in all clients to see if the performance degradation is a global event</t>
-  </si>
-  <si>
-    <t>Aggregation Algorithm</t>
-  </si>
-  <si>
-    <t>Numeric- Percentage [0-100]</t>
-  </si>
-  <si>
-    <t>evaluates the trustworthiness level (heruistic proposed by the authors, Sanchez et al) of the aggregation task</t>
-  </si>
-  <si>
-    <t>Pearson’s Correlation Coefficient</t>
-  </si>
-  <si>
-    <t>Numeric [-1,1]</t>
-  </si>
-  <si>
-    <t>Used for agreement on privacy information usage in privacy awareness</t>
-  </si>
-  <si>
-    <t>Refuse to Answer (RtA) Percentage,</t>
-  </si>
-  <si>
-    <t>Total Disclosure (TD)</t>
-  </si>
-  <si>
-    <t>Chunk Recovery Rate (CRR)</t>
-  </si>
-  <si>
-    <t>Semantic Similarity</t>
-  </si>
-  <si>
-    <t>Phases</t>
-  </si>
-  <si>
-    <t>Number of Bias Issues</t>
-  </si>
-  <si>
-    <t>number of reported and confirmed bias issues - higher number indicates a higher number of bias issues</t>
-  </si>
-  <si>
-    <t>Count(issues)</t>
-  </si>
-  <si>
-    <t>Number of Deployed Bias Fixes</t>
-  </si>
-  <si>
-    <t>number of fixes deployed for the issues reported and confirmed- higher number indicates that a higher number of fixes have been deployed to solve the confirmed bias issues</t>
-  </si>
-  <si>
-    <t>Count(fixes)</t>
-  </si>
-  <si>
-    <t>Underfitting</t>
-  </si>
-  <si>
-    <t>detects if the model is unable to learn the relationship between inputs and outputs accurately. The difference between Model accuracy with training data \&amp; Baseline model Accuracy as determined by expected accuracy- 0-0.05 implies strong underfitting (model is no better than baseline), 0.05-0.15 implies mild underfitting, $&gt;0.15$ usually not underfitting</t>
-  </si>
-  <si>
-    <t>Overfitting</t>
-  </si>
-  <si>
-    <t>measures the model generalization capabilities. Difference between model accuracy with the training dataset &amp; the accuracy with the test dataset- 0-0.05 implies no or minimal overfitting, 0.05-0.15 implies mild overfitting, 0.15-0.30 implies moderate overfitting, &gt;0.30 implies strong or severe overfitting</t>
-  </si>
-  <si>
-    <t>Class Balance</t>
-  </si>
-  <si>
-    <t>measures the ratio of samples belonging to different classes in the training dataset. Uses the chi-square distribution. Tests the deviation between a perfect sample distribution (E_i) for all i and the actual distribution (O_i)- 0 implies perfectly balanced, larger values imply greater imbalance. There is no upper bound (because chi-square grows with imbalance and sample size)</t>
-  </si>
-  <si>
-    <t>Statistical Parity Difference</t>
-  </si>
-  <si>
-    <t>computes the spread between the percentage of samples belonging to the majority receiving a favorable outcome compared to a protected group (\hat{Y} = 1 is a favorable prediction &amp; Pr(\hat{Y}=1|P=p) is the probability of receiving a favorable prediction, (P=1) is the protected minority and (P=0) is the unprotected majority- 0 implies perfect fairness (both groups receive positive outcomes at the same rate), &gt;0 favors the unprivileged group (higher positive prediction rate), &lt;0 favors the privileged group, -1 implies maximum disadvantage for the unprivileged group, 1 implies maximum disadvantage for the privileged group</t>
-  </si>
-  <si>
-    <t>Equal Opportunity Difference</t>
-  </si>
-  <si>
-    <t>measures the spread between the true positive rate and false positive rate of protected and unprotected groups- 0 implies perfect fairness (equal true positive rates), &gt;0 favors the unprivileged group, &lt;0 favors the privileged group, -1 implies privileged group always positive, unprivileged never positive, 1 implies unprivileged group always positive, privileged never positive</t>
-  </si>
-  <si>
-    <t>Average Odds Difference</t>
-  </si>
-  <si>
-    <t>calculates the mean absolute difference in the true positive  rate and false positive rate between protect and unprotected groups- 0 implies perfect fairness (equal true positive and false positive rates),  &gt;0 implies model favors the unprivileged group, &lt;0 implies model favors the privileged group, 1 implies maximum disparity</t>
-  </si>
-  <si>
-    <t>Disparate Impact</t>
-  </si>
-  <si>
-    <t>ratio of a protected group receiving a favorable prediction divided by the ratio of an unprotected group receiving a favorable outcome- 1 implies perfect fairness (both groups receive positive outcomes equally), 0.8-1.25 often considered “acceptable” depending on policy (related to the 80% rule), &lt; 0.8 possible adverse impact against the unprivileged group (fails the 80% rule), &gt;1.25 Possible reverse discrimination or favoritism toward the unprivileged group, 0 implies unprivileged group receives no positive outcomes, infty implies privileged group receives no positive outcomes</t>
-  </si>
-  <si>
-    <t>Participation Variation</t>
-  </si>
-  <si>
-    <t>D &amp; D</t>
-  </si>
-  <si>
-    <t>measures how far the data values from a set are dispersed from the mean; analyzes the distribution of participation rates among all clients. the more dispersed the distribution of the participation rate is the less fair the client selection method is.</t>
-  </si>
-  <si>
-    <t>Accuracy Variation</t>
-  </si>
-  <si>
-    <t>Aggregated global model and test data is used to measure test accuracy; Lower bound: 0 (perfectly stable accuracy), Upper bound: Depends on scale (e.g., 0–1 or 0-100%), Lower = better (more stable and trustworthy model)</t>
-  </si>
-  <si>
-    <t>Discrimination Index</t>
-  </si>
-  <si>
-    <t>All</t>
-  </si>
-  <si>
-    <t>the discrimination index metric measures the difference in F1 scores between a particular demo and the rest of the population, the ideal index should be as close to 0 as possible. F1(w(X_{\sigma}^+) is the F1 score of all the samples from the protected group and F1(W(X_{\sigma}^-)) is the F1 score of the rest of the samples.</t>
-  </si>
-  <si>
-    <t>Class Imbalance</t>
-  </si>
-  <si>
-    <t>occurs when one or more classes in the dataset have significantly fewer examples compared to others</t>
-  </si>
-  <si>
-    <t>Fairness Score</t>
-  </si>
-  <si>
-    <t>the measurement of the concentration of the explanatory variables which may be affected by bias, in terms of the Shapley–Lorenz values; LZ(V_{M}^{SL_*}) is the Gini coefficient computed on the vector V_{M}^{SL_*} and whose elements are align to the sum of the selected predictors' Shapley-Lorenz values in each population</t>
-  </si>
-  <si>
-    <t>Bias Classification Accuracy</t>
-  </si>
-  <si>
-    <t>Disparagement</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Agreement </t>
-  </si>
-  <si>
-    <t>refers to the degree to which it contains the necessary information required to accurately model the underlying patterns by the learning algorithm - where γ(di) is 0 if d_i is a missing data, and 1 otherwise</t>
   </si>
   <si>
     <t>refers to the accuracy of the data items to faithfully represent the real-world phenomena or objects they meant to capture - where ω is the data value to be assessed, ω_m is the corresponding real value and d is a domain-specific distance measure - 1 → perfectly correct data Closer to 0 → increasingly incorrect or noisy data</t>
@@ -1059,15 +348,6 @@
     </r>
   </si>
   <si>
-    <t>Chi-square test</t>
-  </si>
-  <si>
-    <t>Kolmogorov–Smirnov (KS) test</t>
-  </si>
-  <si>
-    <t>F6, F8</t>
-  </si>
-  <si>
     <r>
       <t>Numeric - [-∞,-</t>
     </r>
@@ -1108,25 +388,7 @@
     </r>
   </si>
   <si>
-    <t>a non-parametric statistical hypothesis test that assesses whether observed categorical data significantly deviate from expected frequencies under a specified null hypothesi, where 𝑂_𝑖 is the observed frequency and 𝐸_𝑖 is the expected frequency for category - χ2=0 → perfect agreement between observed and expected counts, Larger χ 2→ greater discrepancy and stronger evidence against the null hypothesis</t>
-  </si>
-  <si>
-    <t>a non-parametric hypothesis test that quantifies the maximum distance between empirical cumulative distribution functions to determine whether two samples, or a sample and a reference distribution, are drawn from the same underlying distribution -where F_n_(x) and G_m(x) are the empirical cumulative distribution functions (ECDFs) of two samples of sizes 𝑛 and 𝑚- 𝐷=0 → distributions are identical, Larger D → stronger evidence that the distributions differ</t>
-  </si>
-  <si>
-    <t>Specificity = T N/(FP+T N)</t>
-  </si>
-  <si>
-    <t>measures the ability of a model to correctly identify negative instances by quantifying the proportion of true negatives among all actual negatives - 1 → no false positives (perfect negative classification), 0 → all negatives are misclassified as positives</t>
-  </si>
-  <si>
-    <t>Availability = Uptime/(Uptime+ Downtime)</t>
-  </si>
-  <si>
-    <t>measures the proportion of time a system remains operational by comparing uptime to the total operational time, including downtime- 1 → system is always available (no downtime), 0 → system is never available, Values closer to 1 indicate higher reliability and operational readiness</t>
-  </si>
-  <si>
-    <t>Mean Time Between Failures (MTBF) quantifies system reliability by measuring the average operational time elapsed between consecutive failures- Higher MTBF → more reliable system with fewer failures, Lower MTBF → frequent failures and reduced dependability</t>
+    <t>Chi-square test</t>
   </si>
   <si>
     <r>
@@ -1143,32 +405,820 @@
     </r>
   </si>
   <si>
+    <t>a non-parametric statistical hypothesis test that assesses whether observed categorical data significantly deviate from expected frequencies under a specified null hypothesi, where 𝑂_𝑖 is the observed frequency and 𝐸_𝑖 is the expected frequency for category - χ2=0 → perfect agreement between observed and expected counts, Larger χ 2→ greater discrepancy and stronger evidence against the null hypothesis</t>
+  </si>
+  <si>
+    <t>Kolmogorov–Smirnov (KS) test</t>
+  </si>
+  <si>
+    <t>a non-parametric hypothesis test that quantifies the maximum distance between empirical cumulative distribution functions to determine whether two samples, or a sample and a reference distribution, are drawn from the same underlying distribution -where F_n_(x) and G_m(x) are the empirical cumulative distribution functions (ECDFs) of two samples of sizes 𝑛 and 𝑚- 𝐷=0 → distributions are identical, Larger D → stronger evidence that the distributions differ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Specificity </t>
+  </si>
+  <si>
+    <t>measures the ability of a model to correctly identify negative instances by quantifying the proportion of true negatives among all actual negatives - 1 → no false positives (perfect negative classification), 0 → all negatives are misclassified as positives</t>
+  </si>
+  <si>
+    <t>Specificity = T N/(FP+T N)</t>
+  </si>
+  <si>
+    <t>Availability</t>
+  </si>
+  <si>
+    <t>measures the proportion of time a system remains operational by comparing uptime to the total operational time, including downtime- 1 → system is always available (no downtime), 0 → system is never available, Values closer to 1 indicate higher reliability and operational readiness</t>
+  </si>
+  <si>
+    <t>Availability = Uptime/(Uptime+ Downtime)</t>
+  </si>
+  <si>
     <t>Mean time to failure (MTTF) / Mean time between failure (MTBF)</t>
   </si>
   <si>
+    <t>Mean Time Between Failures (MTBF) quantifies system reliability by measuring the average operational time elapsed between consecutive failures- Higher MTBF → more reliable system with fewer failures, Lower MTBF → frequent failures and reduced dependability</t>
+  </si>
+  <si>
+    <t>Repeatability</t>
+  </si>
+  <si>
     <t>measures the degree to which an AI system or measurement process produces consistent outputs when the same input is evaluated multiple times under identical conditions - 1 → perfectly consistent, identical repeated outputs, 0 → highly variable, non-repeatable results</t>
   </si>
   <si>
+    <t>Reproducibility</t>
+  </si>
+  <si>
     <t>measures the extent to which an AI system yields consistent results when experiments are repeated under varying conditions such as different datasets, environments, implementations, or operators - 1 → results are fully reproducible across settings, 0 → results vary substantially and cannot be reliably reproduced</t>
   </si>
   <si>
+    <t>Hallucination Detection Accuracy</t>
+  </si>
+  <si>
+    <t>F7</t>
+  </si>
+  <si>
+    <t>GenAI (LLM)</t>
+  </si>
+  <si>
+    <t>The accuracy of the model in distinguishing between factual statements and hallucinated (non-factual) content (e.g., on HaluEval)</t>
+  </si>
+  <si>
+    <t>Measures the model’s ability to produce factually correct answers on truthfulness benchmarks (e.g., TruthfulQA), thereby indicating its capacity to reduce the generation of false beliefs.</t>
+  </si>
+  <si>
+    <t>Macro F1 Score</t>
+  </si>
+  <si>
+    <t>Used for zero-shot fact-checking tasks in misinformation generation integrating external knowledge</t>
+  </si>
+  <si>
+    <t>Retrieval Rate</t>
+  </si>
+  <si>
+    <t>F8</t>
+  </si>
+  <si>
+    <t>Memory</t>
+  </si>
+  <si>
+    <t>Measures the accuracy of the agent in successfully retrieving the correct, relevant information from its long-term memory (Vector DB)</t>
+  </si>
+  <si>
+    <t>System design</t>
+  </si>
+  <si>
+    <t>Model, Dataset</t>
+  </si>
+  <si>
+    <t>Binary - {0,1}</t>
+  </si>
+  <si>
+    <t>Whether a peer-reviews system diagram is available - 0 implies none, 1 implies there is one</t>
+  </si>
+  <si>
+    <t>Data Handling Processes</t>
+  </si>
+  <si>
+    <t>Whether data handling is done using a process that adheres to existing regulations and is well-defined with clear controls - 0 implies there is none, 1 implies there is</t>
+  </si>
+  <si>
+    <t>Data Points Report</t>
+  </si>
+  <si>
+    <t>Whether there is a report telling stating to customers which pieces of data are used in model training- 0 implies there is none, 1 implies there is</t>
+  </si>
+  <si>
+    <t>Data Access Control</t>
+  </si>
+  <si>
+    <t>Whether or not there is system-wide role-based access control \&amp; consent from customers for access to the data- 0 implies there is none, 1 implies there is</t>
+  </si>
+  <si>
+    <t>Touchless Model Training</t>
+  </si>
+  <si>
+    <t>FL</t>
+  </si>
+  <si>
+    <t>Training</t>
+  </si>
+  <si>
+    <t>After the model's architecture is designed, models are trained using automation with no human intervention- 0 implies this is false, 1 implies this is true</t>
+  </si>
+  <si>
+    <t>Refuse to Answer (RtA) Percentage</t>
+  </si>
+  <si>
+    <t>Numeric [0,1]</t>
+  </si>
+  <si>
+    <t>Measures the percentage of instances where LLMs refuse to answer in contexts like jailbreak</t>
+  </si>
+  <si>
+    <t>Toxicity Score</t>
+  </si>
+  <si>
+    <t>Obtained from Perspective API to quantify toxicity in outputs after successful jailbreaks</t>
+  </si>
+  <si>
+    <t>Used for evaluating implicit ethics on datasets like ETHICS and SOCIAL CHEMISTRY 101, and for low-ambiguity scenarios in explicit ethics</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Scope </t>
+  </si>
+  <si>
+    <t>Access Control</t>
+  </si>
+  <si>
+    <t>Environment</t>
+  </si>
+  <si>
+    <t>Whether there is an access control system- 0 implies there is none, 1 implies there is</t>
+  </si>
+  <si>
+    <t>Tiered Access</t>
+  </si>
+  <si>
+    <t>Whether the access control system has tiered access with minimum responsibility- 0 implies there is none, 1 implies there is</t>
+  </si>
+  <si>
+    <t>Data Isolation</t>
+  </si>
+  <si>
+    <t>Whether the data and system is kept separate from unauthorized people and systems- 0 implies no separation, 1 implies separation</t>
+  </si>
+  <si>
+    <t>Confidence Score</t>
+  </si>
+  <si>
+    <t>F2</t>
+  </si>
+  <si>
+    <t>probability of correctly predicting samples. Thrs are the probabilities that one vector is classified correctly, T are the labels. 0 implies no true positives were achieved, 1 implies no false positives or false negatives across all thresholds.</t>
+  </si>
+  <si>
+    <t>Loss Sensitivity</t>
+  </si>
+  <si>
+    <t>DL, LLM</t>
+  </si>
+  <si>
+    <t>calculates the largest variation of the output of a Neural Network under a small change of the input</t>
+  </si>
+  <si>
+    <t>Cross Lipschitz Extreme Value for Network Robustness</t>
+  </si>
+  <si>
+    <t>using Lipschitz continuity and extreme value theory to measure and improve the robustness of neural networks against adversarial attacks, large value strong robustness, small value implies weak robustness, 0 implies an adversarial example can be found with arbitrarily small perturbation</t>
+  </si>
+  <si>
+    <t>Clique Method</t>
+  </si>
+  <si>
+    <t xml:space="preserve">finds the exact minimal adversarial perturbation of a guaranteed lower bound of it (Decision Tree, Random Forest, Gradient Boosted Decision Trees)- Large clique implies strong local robustness, Small clique implies weak robustness, Minimal perturbation estimate = distance to first point outside the clique </t>
+  </si>
+  <si>
+    <t>Empirical Robustness</t>
+  </si>
+  <si>
+    <t>F2, F3</t>
+  </si>
+  <si>
+    <t>measures if small changes in the input data cause significant output deviations. C = trained classifier, rho = an untargeted attack, X is the test data, and rho(x_i) = the first adversarial inputs. Adversarial inputs calculated using Carlini Wagner, Fast Gradient, and DeepFool; ER large implies strong robustness -The model requires a large perturbation to misclassify typical inputs. ER small implies weak robustness- Only a tiny perturbation is needed to fool the model. ER = 0 implies completely non-robust- The smallest possible change flips the prediction.</t>
+  </si>
+  <si>
+    <t>Poisoning Defense</t>
+  </si>
+  <si>
+    <t>Training, Testing</t>
+  </si>
+  <si>
+    <t>focuses on providing defense mechanisms against poisoning attacks. M(D) = model performance on clean data, M(D U D_p) = model performance when trained on poisoned data- 0 implies complete failure against poisoning, 1 implies full resistance</t>
+  </si>
+  <si>
+    <t>Certified Robustness</t>
+  </si>
+  <si>
+    <t>Numeric- Real</t>
+  </si>
+  <si>
+    <t xml:space="preserve">defines the least amount of perturbation required for the attacker to succeed (change the model) - 0 implies no robustness; vulnerable to any perturbation, Small implies weak robustness; small perturbations tolerated, large implies strong robustness; large perturbations tolerated </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Testing Coverage </t>
+  </si>
+  <si>
+    <t>guarantees that clients adhere to federation requirements (broadcasting messages to distributed clients, client selection, model aggregation), 0 implies none of the elements are tested, 1 implies all elements are tested</t>
+  </si>
+  <si>
+    <t>System Reliability</t>
+  </si>
+  <si>
+    <t xml:space="preserve">deals with the probability and duration of time of failure-free operation. T = random variable representing time to failure, t = specific time, P(T&gt;t) = probability the system survives beyond t - 0 implies system is certain to fail by time t, 1 implies system is certain to work up to time t </t>
+  </si>
+  <si>
+    <t>Personalization</t>
+  </si>
+  <si>
+    <t>adapting the behavior or output of an AI system to meet the unique needs, preferences, or characteristics of a particular user or group of users- 0 implies no personalization, 1 implies there is</t>
+  </si>
+  <si>
+    <t>Federation Scale</t>
+  </si>
+  <si>
+    <t>Numeric- Integer</t>
+  </si>
+  <si>
+    <t>number of clients (devices)</t>
+  </si>
+  <si>
+    <t>Count(clients)</t>
+  </si>
+  <si>
+    <t>Client Reputation</t>
+  </si>
+  <si>
+    <t>a measure of how trustworthy or reliable a particular client is in contributing accurate and high-quality updates to the global model</t>
+  </si>
+  <si>
+    <t>Number of positive interactions / Total interactions</t>
+  </si>
+  <si>
+    <t>Data Quality</t>
+  </si>
+  <si>
+    <t xml:space="preserve">compares, in each training round, the local updates with the current global model to see if the new local updates are better or worse than the global model if one client improves the performance of the global model, then the data of that client has a high-quality score.  Q_i= score of the i-th data quality dimension (normalized between 0 and 1), w_i= weight of that dimension, n = total number of quality dimensions considered </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Potential Robustness </t>
+  </si>
+  <si>
+    <t>Gives an indication about the strength of the hypothesis that the ML model performs  better on any given external dataset than the worst possible outcome that could be obtained from the internal validation one</t>
+  </si>
+  <si>
+    <t>Gini Coefficient for Sustainability</t>
+  </si>
+  <si>
+    <t>comparing predictive accuracy, as measured by Shapley–Lorenz values, in different ordered subset the data, possibly altered artificially by anomalous or cyber manipulated ones; LZ(V_{G}^{SL_*}) is the gini coefficient on the vector V_{G}^{SL_*}</t>
+  </si>
+  <si>
+    <t>Robustness Rate</t>
+  </si>
+  <si>
+    <t>Measures the stability of the model's performance when subjected to adversarial inputs or noise compared to its performance on clean data.</t>
+  </si>
+  <si>
+    <t>Acc(adv) - ASR</t>
+  </si>
+  <si>
+    <t>Attack Success Rate (ASR)</t>
+  </si>
+  <si>
+    <t>Measures the success rate of attacks in robustness evaluations</t>
+  </si>
+  <si>
+    <t>ASR = count of samples that were correctly classified in the
+benign set but misclassified in the adversarial set / number of samples correctly
+classified within the benign set</t>
+  </si>
+  <si>
+    <t>OOD Robustness</t>
+  </si>
+  <si>
+    <t>Used for OOD detection in robustness</t>
+  </si>
+  <si>
+    <t>Data Usage Report</t>
+  </si>
+  <si>
+    <t>D&amp;D, Training</t>
+  </si>
+  <si>
+    <t>whether there is a report that informs users what data was used in the training phase- 0 implies there is no report, 1 implies there is</t>
+  </si>
+  <si>
+    <t>Train/Test Split</t>
+  </si>
+  <si>
+    <t>Numeric- percentage [0-100]</t>
+  </si>
+  <si>
+    <t>measures the ratio between the number of samples used for training and testing; if the training and testing dataset do not contain enough representative data, the model will not perform well, it will not be able to generalize, and the predictions will not be reliable</t>
+  </si>
+  <si>
+    <t>Missing Data</t>
+  </si>
+  <si>
+    <t>evaluates how missing values of features of the training dataset are handled, number of missing variables</t>
+  </si>
+  <si>
+    <t>Normalization</t>
+  </si>
+  <si>
+    <t>Categorical - Name</t>
+  </si>
+  <si>
+    <t>evaluates if some models have been trained with normalized or non-normalized data; helps mitigating the effects of outliers and ensures that features values are in the same range</t>
+  </si>
+  <si>
+    <t>Regularization</t>
+  </si>
+  <si>
+    <t>ML, DL, FL, LLM</t>
+  </si>
+  <si>
+    <t>Categorical- Name</t>
+  </si>
+  <si>
+    <t>measures if the ML/DL model used generalization techniques during training; avoids model parameters taking extreme values, and is necessary to avoid memorization during training NN with millions of parameters</t>
+  </si>
+  <si>
+    <t>FactSheet Completeness</t>
+  </si>
+  <si>
+    <t>measures if all needed information is included in the IBM FactSheet for stakeholders</t>
+  </si>
+  <si>
+    <t>Project Specification</t>
+  </si>
+  <si>
+    <t>section of the IBM Factsheet that documents the project overview, purpose, &amp; background</t>
+  </si>
+  <si>
+    <t>Participants</t>
+  </si>
+  <si>
+    <t>contains the participants of the FL process  (IBM FactSheet)</t>
+  </si>
+  <si>
+    <t>Data</t>
+  </si>
+  <si>
+    <t>documents the info regarding the data used in the FL process (IBM FactSheet)</t>
+  </si>
+  <si>
+    <t>Configuration</t>
+  </si>
+  <si>
+    <t>deals with the info about the FL model configuration (IBM FactSheet)</t>
+  </si>
+  <si>
+    <t>System</t>
+  </si>
+  <si>
+    <t>documents the system info for the learning process (IBM Factsheet)</t>
+  </si>
+  <si>
+    <t>Algorithmic Auditing</t>
+  </si>
+  <si>
+    <t>the process of systematically examining and evaluating algorithms—particularly machine learning models or decision-making systems—to ensure they are fair, accountable, transparent,and aligned with ethical and legal standards.</t>
+  </si>
+  <si>
+    <t>Inference Explanation</t>
+  </si>
+  <si>
+    <t>Numeric- Percentage (0-100)</t>
+  </si>
+  <si>
+    <t>Identification of the most important component if the inference results</t>
+  </si>
+  <si>
+    <t>Percentage of importance of the inference component</t>
+  </si>
+  <si>
+    <t>Present Similar Records</t>
+  </si>
+  <si>
+    <t>How similar is the explanation with the other inferences explanations?  - Higher number indicates a higher percentage of similar records</t>
+  </si>
+  <si>
+    <t>Number of Similar Records / Total Number of Records</t>
+  </si>
+  <si>
+    <t>Total Inferences (Number of Explanations</t>
+  </si>
+  <si>
+    <t>Numeric</t>
+  </si>
+  <si>
+    <t>The ratio of number of explanations to total number of explainable records- Higher number indicates higher explanation coverage</t>
+  </si>
+  <si>
+    <t>Number of Explanations / Number of Explainable Records</t>
+  </si>
+  <si>
+    <t>Algorithm Class</t>
+  </si>
+  <si>
+    <t>Categorical- Names or Integer [1,5]</t>
+  </si>
+  <si>
+    <t>a category or family of algorithms that share similar structures, objectives, or methods for solving a specific type of problem</t>
+  </si>
+  <si>
+    <t>Correlated Features</t>
+  </si>
+  <si>
+    <t>Numeric- percentage (0-100)</t>
+  </si>
+  <si>
+    <t>measures the percentage of highly correlated features; high correlation among features might lead to biases in most explanation techniques</t>
+  </si>
+  <si>
+    <t>Pearson, Spearman, Kendall-Tau, etc.</t>
+  </si>
+  <si>
+    <t>Feature Relevance (Feature Importance)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Numeric- percentage (0-100) </t>
+  </si>
+  <si>
+    <t>Calculates the percentage of irrelevant features for a set of predictions. Lower irrelevant features is better due to the fact that more of them would lead to more complex explanations</t>
+  </si>
+  <si>
+    <t>Shapley value, Attention value, coeffiecicent value, etc.</t>
+  </si>
+  <si>
+    <t>Model Size</t>
+  </si>
+  <si>
+    <t>Indicates the number of parameters used by the models</t>
+  </si>
+  <si>
+    <t>Algorithmic Transparency</t>
+  </si>
+  <si>
+    <t>Categorical- Integer [1,5]</t>
+  </si>
+  <si>
+    <t>the degree to which the internal workings, decision-making processes, and outputs of an algorithm can be understood, explained, and scrutinized by stakeholders such as developers, users, regulators, and impacted individuals; 1- least transparent, 5- most transparent</t>
+  </si>
+  <si>
+    <t>Value provided by Sanchez et al.</t>
+  </si>
+  <si>
+    <t>Simplification</t>
+  </si>
+  <si>
+    <t>Binary- {0,1}</t>
+  </si>
+  <si>
+    <t>reducing the number of of architectural elements or parameters in a model withouot affecting the model's performance or with a negilible loss; Was simplification done of not?</t>
+  </si>
+  <si>
+    <t>Distillation, Quantization, etc.</t>
+  </si>
+  <si>
+    <t>Visualization</t>
+  </si>
+  <si>
+    <t>ALL (w/o D&amp;D)</t>
+  </si>
+  <si>
+    <t>a lifecycle dashboard that visualizes server info, from client registration to training, validation, and deployment; Was there a comprehensive dashboard or not?</t>
+  </si>
+  <si>
+    <t>Benefit Diagram</t>
+  </si>
+  <si>
+    <t>a type of scatterplot that shows how much AI support helps or harms decision-making</t>
+  </si>
+  <si>
+    <t>Explainability Score</t>
+  </si>
+  <si>
+    <t>a measure of the response variable mutual variability explained by each predictor, normalised in the interval [0, 1]; LZ(Y) corresponds to the response variable Y Lorenz Zonoid value and SL_k is the Shapley-Lorenz values for the kth predictor</t>
+  </si>
+  <si>
+    <t>Fidelity</t>
+  </si>
+  <si>
+    <t>XAI Method</t>
+  </si>
+  <si>
+    <t>is defined as the model's confidence score (f(x)) in its original prediction after the top-ranked features identified by the explanation method have been modified or masked (f(x\S)). The value range is in the interval of [0,1], score closer to 0 is better.</t>
+  </si>
+  <si>
+    <t>Faithfulness</t>
+  </si>
+  <si>
     <t xml:space="preserve">measures the degree to which an interpretation method accurately reflects the reasoning of the model it interprets </t>
   </si>
   <si>
+    <t>Monotonicity</t>
+  </si>
+  <si>
     <t>XAI</t>
   </si>
   <si>
     <t>measures the extent to which changes in an input variable consistently induce changes in the same direction in the model output, indicating whether the model behavior aligns with expected monotonic relationships, where ρ(x,y) is a rank-based correlation coefficient (e.g., Spearman’s, ρ between an input feature x and the model output y- -1 → perfectly increasing monotonic relationship, −1 → perfectly decreasing monotonic relationship, 0 → no monotonic relationship.</t>
   </si>
   <si>
+    <t>Sensitivity</t>
+  </si>
+  <si>
     <t xml:space="preserve">measures the ability of a model to correctly identify positive instances by computing the proportion of true positives among all actual positives, 1 → all positives correctly detected, 0 → no positives detected, </t>
+  </si>
+  <si>
+    <t>Legal &amp; Privacy Frameworks</t>
+  </si>
+  <si>
+    <t>Is there a design and implementation of legal, privacy, and responsibility frameworks? 0 indicates there is none, 1 implies there is</t>
+  </si>
+  <si>
+    <t>De-identification of Data</t>
+  </si>
+  <si>
+    <t>Has the data been made such that identification is not possible? 0 indicates the data has not been de-identified, 1 indicates that it has</t>
+  </si>
+  <si>
+    <t>Privacy Training</t>
+  </si>
+  <si>
+    <t>Have the people involved with the system undergone privacy training? 0 indicates there has been no training, 1 indicates there has been training</t>
+  </si>
+  <si>
+    <t>Perturbation</t>
+  </si>
+  <si>
+    <t>Testing, Deployment</t>
+  </si>
+  <si>
+    <t>Adds noise to raw data in order to make the perturbed data indistinguishable from the raw data. 0 implies there is perturbation, 1 implies there is not</t>
+  </si>
+  <si>
+    <t>Encryption</t>
+  </si>
+  <si>
+    <t>Encrypts model parameters of each participant before sharing it. 0 implies there is encryption. 1 implies there is not</t>
+  </si>
+  <si>
+    <t>Anonymization</t>
+  </si>
+  <si>
+    <t>A data processing technique that transforms data in such a way that the identities of individuals cannot be determined, even when the data is combined with other sources- 0 implies there is anonymization, 1 implies there is no</t>
+  </si>
+  <si>
+    <t>H-MINE</t>
+  </si>
+  <si>
+    <t>H-Mine is a memory-efficient algorithm for discovering frequent itemsets in large datasets. It avoids building expensive structures like FP-trees and instead uses a lightweight H-struct (Hyper-Structure) to mine patterns efficiently</t>
+  </si>
+  <si>
+    <t>See Pei et al.</t>
+  </si>
+  <si>
+    <t>Amount of Leaked Information</t>
+  </si>
+  <si>
+    <t>Counting the number of items that have been disclosed by the AI system; the higher the number the more information that has been leaked by the system.</t>
+  </si>
+  <si>
+    <t>Relative Entropy</t>
+  </si>
+  <si>
+    <t>The distance between two probability distributions;measures how much information is lost when q is used to approximate p; p(x) is the true or reference distribution, q(x) is the approximate or comparison distribution; always non-negative and equals 0 only when p(x)=q(x) almost everywhere.</t>
+  </si>
+  <si>
+    <t>Mutual Information</t>
+  </si>
+  <si>
+    <t>X</t>
+  </si>
+  <si>
+    <t>evaluating the shared information between two random variables</t>
+  </si>
+  <si>
+    <t>Entropy</t>
+  </si>
+  <si>
+    <t>measures the uncertainty in predicting the value of a random variable. X is a participating client and p(x_i) is the estimated probability of this client being the target - 0 implies no uncertainty, 1 implies maximum uncertainty</t>
+  </si>
+  <si>
+    <t>Global Privacy Risk</t>
+  </si>
+  <si>
+    <t>enables indistinguishability in the training data by adding random noise - 0 implies no privacy risk (fully safe), 0-0.3 implies low privacy risk, 0.3–0.6 implies medium privacy risk, 0.6–1 implies high privacy risk, 1 implies maximum exposure; critical risk</t>
+  </si>
+  <si>
+    <t>Client Registry</t>
+  </si>
+  <si>
+    <t>enables the system to manage client connections and track the status of all client devices</t>
+  </si>
+  <si>
+    <t>Client Selector</t>
+  </si>
+  <si>
+    <t>optimizes resource usage and reduces the risk of client dropout and communication latency; also maintains the client registry in the central server for the client server architecture</t>
+  </si>
+  <si>
+    <t>Model co-versioning</t>
+  </si>
+  <si>
+    <t>aligns the local models with their corresponding aggregated global models</t>
+  </si>
+  <si>
+    <t>Model Replacement</t>
+  </si>
+  <si>
+    <t>detects if the global model performance is dropping below a certain threshold; compares global model performance in all clients to see if the performance degradation is a global event</t>
+  </si>
+  <si>
+    <t>Aggregation Algorithm</t>
+  </si>
+  <si>
+    <t>Numeric- Percentage [0-100]</t>
+  </si>
+  <si>
+    <t>evaluates the trustworthiness level (heruistic proposed by the authors, Sanchez et al) of the aggregation task</t>
+  </si>
+  <si>
+    <t>Pearson’s Correlation Coefficient</t>
+  </si>
+  <si>
+    <t>Numeric [-1,1]</t>
+  </si>
+  <si>
+    <t>Used for agreement on privacy information usage in privacy awareness</t>
+  </si>
+  <si>
+    <t>Refuse to Answer (RtA) Percentage,</t>
+  </si>
+  <si>
+    <t>Numeric - [0-1]</t>
+  </si>
+  <si>
+    <t>The rate at which the model correctly refuses to answer questions that require disclosing private information</t>
+  </si>
+  <si>
+    <t>Total Disclosure (TD)</t>
+  </si>
+  <si>
+    <t>The ratio of successful privacy leaks (correctly generated sensitive info) relative to the total number of attempts.</t>
+  </si>
+  <si>
+    <t>Chunk Recovery Rate (CRR)</t>
+  </si>
+  <si>
+    <t>LLM Agent</t>
+  </si>
+  <si>
+    <t>Used in data theft attacks (e.g., RAG-Thief). It measures the percentage of private text chunks from the database that an attacker successfully extracts verbatim.</t>
+  </si>
+  <si>
+    <t>Semantic Similarity</t>
+  </si>
+  <si>
+    <t>Measures how semantically close the stolen/leaked data is to the original private data, even if it isn't an exact match (using Embedding Cosine Similarity).</t>
+  </si>
+  <si>
+    <t>Phases</t>
+  </si>
+  <si>
+    <t>Number of Bias Issues</t>
+  </si>
+  <si>
+    <t>number of reported and confirmed bias issues - higher number indicates a higher number of bias issues</t>
+  </si>
+  <si>
+    <t>Count(issues)</t>
+  </si>
+  <si>
+    <t>Number of Deployed Bias Fixes</t>
+  </si>
+  <si>
+    <t>number of fixes deployed for the issues reported and confirmed- higher number indicates that a higher number of fixes have been deployed to solve the confirmed bias issues</t>
+  </si>
+  <si>
+    <t>Count(fixes)</t>
+  </si>
+  <si>
+    <t>Underfitting</t>
+  </si>
+  <si>
+    <t>detects if the model is unable to learn the relationship between inputs and outputs accurately. The difference between Model accuracy with training data \&amp; Baseline model Accuracy as determined by expected accuracy- 0-0.05 implies strong underfitting (model is no better than baseline), 0.05-0.15 implies mild underfitting, $&gt;0.15$ usually not underfitting</t>
+  </si>
+  <si>
+    <t>Overfitting</t>
+  </si>
+  <si>
+    <t>measures the model generalization capabilities. Difference between model accuracy with the training dataset &amp; the accuracy with the test dataset- 0-0.05 implies no or minimal overfitting, 0.05-0.15 implies mild overfitting, 0.15-0.30 implies moderate overfitting, &gt;0.30 implies strong or severe overfitting</t>
+  </si>
+  <si>
+    <t>Class Balance</t>
+  </si>
+  <si>
+    <t>measures the ratio of samples belonging to different classes in the training dataset. Uses the chi-square distribution. Tests the deviation between a perfect sample distribution (E_i) for all i and the actual distribution (O_i)- 0 implies perfectly balanced, larger values imply greater imbalance. There is no upper bound (because chi-square grows with imbalance and sample size)</t>
+  </si>
+  <si>
+    <t>Statistical Parity Difference</t>
+  </si>
+  <si>
+    <t>computes the spread between the percentage of samples belonging to the majority receiving a favorable outcome compared to a protected group (\hat{Y} = 1 is a favorable prediction &amp; Pr(\hat{Y}=1|P=p) is the probability of receiving a favorable prediction, (P=1) is the protected minority and (P=0) is the unprotected majority- 0 implies perfect fairness (both groups receive positive outcomes at the same rate), &gt;0 favors the unprivileged group (higher positive prediction rate), &lt;0 favors the privileged group, -1 implies maximum disadvantage for the unprivileged group, 1 implies maximum disadvantage for the privileged group</t>
+  </si>
+  <si>
+    <t>Equal Opportunity Difference</t>
+  </si>
+  <si>
+    <t>measures the spread between the true positive rate and false positive rate of protected and unprotected groups- 0 implies perfect fairness (equal true positive rates), &gt;0 favors the unprivileged group, &lt;0 favors the privileged group, -1 implies privileged group always positive, unprivileged never positive, 1 implies unprivileged group always positive, privileged never positive</t>
+  </si>
+  <si>
+    <t>Average Odds Difference</t>
+  </si>
+  <si>
+    <t>calculates the mean absolute difference in the true positive  rate and false positive rate between protect and unprotected groups- 0 implies perfect fairness (equal true positive and false positive rates),  &gt;0 implies model favors the unprivileged group, &lt;0 implies model favors the privileged group, 1 implies maximum disparity</t>
+  </si>
+  <si>
+    <t>Disparate Impact</t>
+  </si>
+  <si>
+    <t>ratio of a protected group receiving a favorable prediction divided by the ratio of an unprotected group receiving a favorable outcome- 1 implies perfect fairness (both groups receive positive outcomes equally), 0.8-1.25 often considered “acceptable” depending on policy (related to the 80% rule), &lt; 0.8 possible adverse impact against the unprivileged group (fails the 80% rule), &gt;1.25 Possible reverse discrimination or favoritism toward the unprivileged group, 0 implies unprivileged group receives no positive outcomes, infty implies privileged group receives no positive outcomes</t>
+  </si>
+  <si>
+    <t>Participation Variation</t>
+  </si>
+  <si>
+    <t>D &amp; D</t>
+  </si>
+  <si>
+    <t>measures how far the data values from a set are dispersed from the mean; analyzes the distribution of participation rates among all clients. the more dispersed the distribution of the participation rate is the less fair the client selection method is.</t>
+  </si>
+  <si>
+    <t>Accuracy Variation</t>
+  </si>
+  <si>
+    <t>Aggregated global model and test data is used to measure test accuracy; Lower bound: 0 (perfectly stable accuracy), Upper bound: Depends on scale (e.g., 0–1 or 0-100%), Lower = better (more stable and trustworthy model)</t>
+  </si>
+  <si>
+    <t>Discrimination Index</t>
+  </si>
+  <si>
+    <t>All</t>
+  </si>
+  <si>
+    <t>the discrimination index metric measures the difference in F1 scores between a particular demo and the rest of the population, the ideal index should be as close to 0 as possible. F1(w(X_{\sigma}^+) is the F1 score of all the samples from the protected group and F1(W(X_{\sigma}^-)) is the F1 score of the rest of the samples.</t>
+  </si>
+  <si>
+    <t>Class Imbalance</t>
+  </si>
+  <si>
+    <t>occurs when one or more classes in the dataset have significantly fewer examples compared to others</t>
+  </si>
+  <si>
+    <t>Fairness Score</t>
+  </si>
+  <si>
+    <t>the measurement of the concentration of the explanatory variables which may be affected by bias, in terms of the Shapley–Lorenz values; LZ(V_{M}^{SL_*}) is the Gini coefficient computed on the vector V_{M}^{SL_*} and whose elements are align to the sum of the selected predictors' Shapley-Lorenz values in each population</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Accuracy</t>
+  </si>
+  <si>
+    <t>The model's accuracy in correctly identifying which part of a text contains a stereotype. Higher is better.</t>
+  </si>
+  <si>
+    <t>Disparagement</t>
+  </si>
+  <si>
+    <t>A statistical measure (Chi-Square test) to determine if the model significantly favors or disparages one demographic group over another in decision</t>
+  </si>
+  <si>
+    <t>CHISQ.DIST.RT(x, deg_freedom)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Agreement </t>
+  </si>
+  <si>
+    <t>Percentage of instances where LLMs output agreement with stereotype statements in fairness evaluations</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="5">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -14205,11 +14255,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F7EA8B98-5611-4551-B3EB-7958DD4CE8C9}">
   <dimension ref="A1:H35"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H32" sqref="H32"/>
+    <sheetView topLeftCell="D30" workbookViewId="0">
+      <selection activeCell="G40" sqref="G40"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="29.5703125" customWidth="1"/>
     <col min="2" max="3" width="11.5703125" customWidth="1"/>
@@ -14220,7 +14270,7 @@
     <col min="8" max="8" width="95.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -14246,7 +14296,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:8" ht="36.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8" ht="36.75" customHeight="1">
       <c r="A2" t="s">
         <v>8</v>
       </c>
@@ -14270,12 +14320,12 @@
       </c>
       <c r="H2" s="1"/>
     </row>
-    <row r="3" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:8" ht="30">
       <c r="A3" t="s">
         <v>15</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>329</v>
+        <v>16</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>10</v>
@@ -14296,12 +14346,12 @@
         <v>18</v>
       </c>
     </row>
-    <row r="4" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:8" ht="30">
       <c r="A4" t="s">
         <v>19</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>329</v>
+        <v>16</v>
       </c>
       <c r="C4" s="1" t="s">
         <v>10</v>
@@ -14322,12 +14372,12 @@
         <v>21</v>
       </c>
     </row>
-    <row r="5" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:8" ht="30">
       <c r="A5" t="s">
         <v>22</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>329</v>
+        <v>16</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>10</v>
@@ -14348,7 +14398,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="6" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:8" ht="30">
       <c r="A6" t="s">
         <v>25</v>
       </c>
@@ -14374,7 +14424,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="7" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:8" ht="30">
       <c r="A7" t="s">
         <v>32</v>
       </c>
@@ -14400,7 +14450,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:8">
       <c r="A8" t="s">
         <v>36</v>
       </c>
@@ -14426,7 +14476,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:8">
       <c r="A9" t="s">
         <v>40</v>
       </c>
@@ -14452,7 +14502,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:8">
       <c r="A10" t="s">
         <v>43</v>
       </c>
@@ -14478,7 +14528,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:8">
       <c r="A11" t="s">
         <v>46</v>
       </c>
@@ -14504,7 +14554,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="12" spans="1:8" ht="45" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:8" ht="45">
       <c r="A12" t="s">
         <v>49</v>
       </c>
@@ -14530,7 +14580,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="13" spans="1:8" ht="60" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:8" ht="60">
       <c r="A13" s="2" t="s">
         <v>54</v>
       </c>
@@ -14553,7 +14603,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="14" spans="1:8" ht="45" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:8" ht="45">
       <c r="A14" t="s">
         <v>59</v>
       </c>
@@ -14579,7 +14629,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="15" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:8" ht="30">
       <c r="A15" t="s">
         <v>62</v>
       </c>
@@ -14603,7 +14653,7 @@
       </c>
       <c r="H15" s="1"/>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:8">
       <c r="A16" t="s">
         <v>67</v>
       </c>
@@ -14629,7 +14679,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="17" spans="1:8" ht="75" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:8" ht="75">
       <c r="A17" t="s">
         <v>72</v>
       </c>
@@ -14652,7 +14702,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="18" spans="1:8" ht="45" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:8" ht="45">
       <c r="A18" t="s">
         <v>74</v>
       </c>
@@ -14676,7 +14726,7 @@
       </c>
       <c r="H18" s="1"/>
     </row>
-    <row r="19" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:8" ht="30">
       <c r="A19" t="s">
         <v>76</v>
       </c>
@@ -14702,7 +14752,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="20" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:8" ht="30">
       <c r="A20" t="s">
         <v>79</v>
       </c>
@@ -14726,7 +14776,7 @@
       </c>
       <c r="H20" s="3"/>
     </row>
-    <row r="21" spans="1:8" ht="45" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:8" ht="45">
       <c r="A21" t="s">
         <v>81</v>
       </c>
@@ -14749,12 +14799,12 @@
         <v>83</v>
       </c>
     </row>
-    <row r="22" spans="1:8" ht="46.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:8" ht="46.5" customHeight="1">
       <c r="A22" s="4" t="s">
         <v>84</v>
       </c>
       <c r="B22" s="5" t="s">
-        <v>16</v>
+        <v>85</v>
       </c>
       <c r="C22" s="1" t="s">
         <v>10</v>
@@ -14766,15 +14816,15 @@
         <v>37</v>
       </c>
       <c r="G22" s="2" t="s">
-        <v>324</v>
+        <v>86</v>
       </c>
     </row>
-    <row r="23" spans="1:8" ht="45" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:8" ht="45">
       <c r="A23" s="4" t="s">
+        <v>87</v>
+      </c>
+      <c r="B23" s="5" t="s">
         <v>85</v>
-      </c>
-      <c r="B23" s="5" t="s">
-        <v>16</v>
       </c>
       <c r="C23" s="1" t="s">
         <v>10</v>
@@ -14786,15 +14836,15 @@
         <v>37</v>
       </c>
       <c r="G23" s="2" t="s">
-        <v>325</v>
+        <v>88</v>
       </c>
     </row>
-    <row r="24" spans="1:8" ht="64.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:8" ht="64.5" customHeight="1">
       <c r="A24" t="s">
-        <v>326</v>
+        <v>89</v>
       </c>
       <c r="B24" s="5" t="s">
-        <v>16</v>
+        <v>85</v>
       </c>
       <c r="C24" s="1" t="s">
         <v>10</v>
@@ -14803,18 +14853,18 @@
         <v>56</v>
       </c>
       <c r="F24" t="s">
-        <v>330</v>
+        <v>90</v>
       </c>
       <c r="G24" s="2" t="s">
-        <v>331</v>
+        <v>91</v>
       </c>
     </row>
-    <row r="25" spans="1:8" ht="60" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:8" ht="60">
       <c r="A25" t="s">
-        <v>327</v>
+        <v>92</v>
       </c>
       <c r="B25" s="5" t="s">
-        <v>16</v>
+        <v>85</v>
       </c>
       <c r="C25" s="1" t="s">
         <v>10</v>
@@ -14823,18 +14873,18 @@
         <v>56</v>
       </c>
       <c r="F25" t="s">
-        <v>339</v>
+        <v>93</v>
       </c>
       <c r="G25" s="2" t="s">
-        <v>332</v>
+        <v>94</v>
       </c>
     </row>
-    <row r="26" spans="1:8" ht="60" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:8" ht="60">
       <c r="A26" t="s">
-        <v>328</v>
+        <v>95</v>
       </c>
       <c r="B26" s="5" t="s">
-        <v>16</v>
+        <v>85</v>
       </c>
       <c r="C26" s="1" t="s">
         <v>10</v>
@@ -14846,15 +14896,15 @@
         <v>37</v>
       </c>
       <c r="G26" s="2" t="s">
-        <v>333</v>
+        <v>96</v>
       </c>
     </row>
-    <row r="27" spans="1:8" ht="45" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:8" ht="45">
       <c r="A27" s="4" t="s">
-        <v>86</v>
+        <v>97</v>
       </c>
       <c r="B27" s="5" t="s">
-        <v>16</v>
+        <v>85</v>
       </c>
       <c r="C27" s="1" t="s">
         <v>10</v>
@@ -14866,18 +14916,18 @@
         <v>37</v>
       </c>
       <c r="G27" s="2" t="s">
-        <v>335</v>
+        <v>98</v>
       </c>
       <c r="H27" s="1" t="s">
-        <v>334</v>
+        <v>99</v>
       </c>
     </row>
-    <row r="28" spans="1:8" ht="45" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:8" ht="45">
       <c r="A28" s="4" t="s">
-        <v>87</v>
+        <v>100</v>
       </c>
       <c r="B28" s="5" t="s">
-        <v>16</v>
+        <v>85</v>
       </c>
       <c r="C28" s="1" t="s">
         <v>10</v>
@@ -14889,35 +14939,35 @@
         <v>37</v>
       </c>
       <c r="G28" s="2" t="s">
-        <v>337</v>
+        <v>101</v>
       </c>
       <c r="H28" s="1" t="s">
-        <v>336</v>
+        <v>102</v>
       </c>
     </row>
-    <row r="29" spans="1:8" ht="45" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:8" ht="45">
       <c r="A29" s="6" t="s">
-        <v>340</v>
+        <v>103</v>
       </c>
       <c r="B29" s="5" t="s">
-        <v>16</v>
+        <v>85</v>
       </c>
       <c r="C29" s="1" t="s">
         <v>10</v>
       </c>
       <c r="F29" t="s">
-        <v>339</v>
+        <v>93</v>
       </c>
       <c r="G29" s="2" t="s">
-        <v>338</v>
+        <v>104</v>
       </c>
     </row>
-    <row r="30" spans="1:8" ht="45" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:8" ht="45">
       <c r="A30" s="4" t="s">
-        <v>88</v>
+        <v>105</v>
       </c>
       <c r="B30" s="5" t="s">
-        <v>16</v>
+        <v>85</v>
       </c>
       <c r="C30" s="1" t="s">
         <v>10</v>
@@ -14926,15 +14976,15 @@
         <v>37</v>
       </c>
       <c r="G30" s="2" t="s">
-        <v>341</v>
+        <v>106</v>
       </c>
     </row>
-    <row r="31" spans="1:8" ht="45" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:8" ht="45">
       <c r="A31" s="4" t="s">
-        <v>89</v>
+        <v>107</v>
       </c>
       <c r="B31" s="5" t="s">
-        <v>16</v>
+        <v>85</v>
       </c>
       <c r="C31" s="1" t="s">
         <v>10</v>
@@ -14943,18 +14993,18 @@
         <v>37</v>
       </c>
       <c r="G31" s="2" t="s">
-        <v>342</v>
+        <v>108</v>
       </c>
     </row>
-    <row r="32" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:8" ht="30">
       <c r="A32" t="s">
-        <v>90</v>
+        <v>109</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>91</v>
+        <v>110</v>
       </c>
       <c r="C32" t="s">
-        <v>92</v>
+        <v>111</v>
       </c>
       <c r="D32" t="s">
         <v>11</v>
@@ -14966,21 +15016,21 @@
         <v>37</v>
       </c>
       <c r="G32" s="2" t="s">
-        <v>93</v>
+        <v>112</v>
       </c>
       <c r="H32" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="33" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:8" ht="30">
       <c r="A33" t="s">
         <v>8</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>91</v>
+        <v>110</v>
       </c>
       <c r="C33" t="s">
-        <v>92</v>
+        <v>111</v>
       </c>
       <c r="D33" t="s">
         <v>11</v>
@@ -14992,21 +15042,21 @@
         <v>37</v>
       </c>
       <c r="G33" s="2" t="s">
-        <v>94</v>
+        <v>113</v>
       </c>
       <c r="H33" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="34" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:8">
       <c r="A34" t="s">
-        <v>95</v>
+        <v>114</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>91</v>
+        <v>110</v>
       </c>
       <c r="C34" t="s">
-        <v>92</v>
+        <v>111</v>
       </c>
       <c r="D34" t="s">
         <v>11</v>
@@ -15018,18 +15068,36 @@
         <v>37</v>
       </c>
       <c r="G34" s="2" t="s">
-        <v>96</v>
+        <v>115</v>
       </c>
       <c r="H34" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="35" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:8">
       <c r="A35" t="s">
-        <v>98</v>
+        <v>116</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>97</v>
+        <v>117</v>
+      </c>
+      <c r="C35" t="s">
+        <v>111</v>
+      </c>
+      <c r="D35" t="s">
+        <v>118</v>
+      </c>
+      <c r="E35" t="s">
+        <v>12</v>
+      </c>
+      <c r="F35" t="s">
+        <v>37</v>
+      </c>
+      <c r="G35" t="s">
+        <v>119</v>
+      </c>
+      <c r="H35" t="s">
+        <v>71</v>
       </c>
     </row>
   </sheetData>
@@ -15044,10 +15112,10 @@
   <dimension ref="A1:H9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G9" sqref="G9"/>
+      <selection activeCell="G12" sqref="G12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="28.5703125" customWidth="1"/>
     <col min="2" max="5" width="13.140625" customWidth="1"/>
@@ -15056,7 +15124,7 @@
     <col min="8" max="8" width="36.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -15082,9 +15150,9 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8" ht="30">
       <c r="A2" t="s">
-        <v>99</v>
+        <v>120</v>
       </c>
       <c r="B2" t="s">
         <v>26</v>
@@ -15093,24 +15161,24 @@
         <v>10</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>100</v>
+        <v>121</v>
       </c>
       <c r="E2" s="1" t="s">
         <v>57</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>101</v>
+        <v>122</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>102</v>
+        <v>123</v>
       </c>
       <c r="H2" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="3" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:8" ht="30">
       <c r="A3" t="s">
-        <v>103</v>
+        <v>124</v>
       </c>
       <c r="B3" t="s">
         <v>26</v>
@@ -15125,18 +15193,18 @@
         <v>57</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>101</v>
+        <v>122</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>104</v>
+        <v>125</v>
       </c>
       <c r="H3" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="4" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:8" ht="30">
       <c r="A4" t="s">
-        <v>105</v>
+        <v>126</v>
       </c>
       <c r="B4" t="s">
         <v>26</v>
@@ -15151,18 +15219,18 @@
         <v>57</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>101</v>
+        <v>122</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>106</v>
+        <v>127</v>
       </c>
       <c r="H4" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="5" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:8" ht="30">
       <c r="A5" t="s">
-        <v>107</v>
+        <v>128</v>
       </c>
       <c r="B5" t="s">
         <v>26</v>
@@ -15177,50 +15245,50 @@
         <v>57</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>101</v>
+        <v>122</v>
       </c>
       <c r="G5" s="2" t="s">
-        <v>108</v>
+        <v>129</v>
       </c>
       <c r="H5" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="6" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:8" ht="30">
       <c r="A6" t="s">
-        <v>109</v>
+        <v>130</v>
       </c>
       <c r="B6" t="s">
         <v>26</v>
       </c>
       <c r="C6" t="s">
-        <v>110</v>
+        <v>131</v>
       </c>
       <c r="D6" t="s">
         <v>11</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>111</v>
+        <v>132</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>101</v>
+        <v>122</v>
       </c>
       <c r="G6" s="2" t="s">
-        <v>112</v>
+        <v>133</v>
       </c>
       <c r="H6" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:8">
       <c r="A7" t="s">
-        <v>113</v>
+        <v>134</v>
       </c>
       <c r="B7" t="s">
-        <v>91</v>
+        <v>110</v>
       </c>
       <c r="C7" t="s">
-        <v>92</v>
+        <v>111</v>
       </c>
       <c r="D7" t="s">
         <v>11</v>
@@ -15229,24 +15297,24 @@
         <v>12</v>
       </c>
       <c r="F7" t="s">
-        <v>114</v>
+        <v>135</v>
       </c>
       <c r="G7" t="s">
-        <v>115</v>
+        <v>136</v>
       </c>
       <c r="H7" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:8">
       <c r="A8" t="s">
-        <v>116</v>
+        <v>137</v>
       </c>
       <c r="B8" t="s">
-        <v>91</v>
+        <v>110</v>
       </c>
       <c r="C8" t="s">
-        <v>92</v>
+        <v>111</v>
       </c>
       <c r="D8" t="s">
         <v>11</v>
@@ -15255,24 +15323,24 @@
         <v>12</v>
       </c>
       <c r="F8" t="s">
-        <v>114</v>
+        <v>135</v>
       </c>
       <c r="G8" t="s">
-        <v>117</v>
+        <v>138</v>
       </c>
       <c r="H8" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="9" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:8" ht="30">
       <c r="A9" t="s">
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>91</v>
+        <v>110</v>
       </c>
       <c r="C9" t="s">
-        <v>92</v>
+        <v>111</v>
       </c>
       <c r="D9" t="s">
         <v>11</v>
@@ -15281,10 +15349,13 @@
         <v>12</v>
       </c>
       <c r="F9" t="s">
-        <v>114</v>
+        <v>135</v>
       </c>
       <c r="G9" s="2" t="s">
-        <v>118</v>
+        <v>139</v>
+      </c>
+      <c r="H9" t="s">
+        <v>71</v>
       </c>
     </row>
   </sheetData>
@@ -15297,11 +15368,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5B9872C0-87ED-4942-9D20-BE02F97DE3C1}">
   <dimension ref="A1:H22"/>
   <sheetViews>
-    <sheetView topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="A23" sqref="A23"/>
+    <sheetView topLeftCell="A17" workbookViewId="0">
+      <selection activeCell="H23" sqref="H23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="27.7109375" customWidth="1"/>
     <col min="2" max="5" width="14.5703125" customWidth="1"/>
@@ -15310,7 +15381,7 @@
     <col min="8" max="8" width="48.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -15321,7 +15392,7 @@
         <v>2</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>119</v>
+        <v>140</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>4</v>
@@ -15336,9 +15407,9 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8">
       <c r="A2" t="s">
-        <v>120</v>
+        <v>141</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>26</v>
@@ -15347,24 +15418,24 @@
         <v>10</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>121</v>
+        <v>142</v>
       </c>
       <c r="E2" s="1" t="s">
         <v>28</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>101</v>
+        <v>122</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>122</v>
+        <v>143</v>
       </c>
       <c r="H2" s="1" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="3" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:8" ht="30">
       <c r="A3" t="s">
-        <v>123</v>
+        <v>144</v>
       </c>
       <c r="B3" s="1" t="s">
         <v>26</v>
@@ -15373,24 +15444,24 @@
         <v>10</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>121</v>
+        <v>142</v>
       </c>
       <c r="E3" s="1" t="s">
         <v>28</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>101</v>
+        <v>122</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>124</v>
+        <v>145</v>
       </c>
       <c r="H3" s="1" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="4" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:8" ht="30">
       <c r="A4" t="s">
-        <v>125</v>
+        <v>146</v>
       </c>
       <c r="B4" s="1" t="s">
         <v>26</v>
@@ -15399,27 +15470,27 @@
         <v>10</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>121</v>
+        <v>142</v>
       </c>
       <c r="E4" s="1" t="s">
         <v>28</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>101</v>
+        <v>122</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>126</v>
+        <v>147</v>
       </c>
       <c r="H4" s="1" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="5" spans="1:8" ht="45" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:8" ht="45">
       <c r="A5" t="s">
-        <v>127</v>
+        <v>148</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>128</v>
+        <v>149</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>10</v>
@@ -15434,19 +15505,19 @@
         <v>37</v>
       </c>
       <c r="G5" s="2" t="s">
-        <v>129</v>
+        <v>150</v>
       </c>
       <c r="H5" s="1"/>
     </row>
-    <row r="6" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:8" ht="30">
       <c r="A6" t="s">
-        <v>130</v>
+        <v>151</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>128</v>
+        <v>149</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>131</v>
+        <v>152</v>
       </c>
       <c r="D6" s="1" t="s">
         <v>11</v>
@@ -15458,19 +15529,19 @@
         <v>33</v>
       </c>
       <c r="G6" s="2" t="s">
-        <v>132</v>
+        <v>153</v>
       </c>
       <c r="H6" s="1"/>
     </row>
-    <row r="7" spans="1:8" ht="60" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:8" ht="60">
       <c r="A7" s="2" t="s">
-        <v>133</v>
+        <v>154</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>128</v>
+        <v>149</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>131</v>
+        <v>152</v>
       </c>
       <c r="D7" s="1" t="s">
         <v>11</v>
@@ -15482,16 +15553,16 @@
         <v>33</v>
       </c>
       <c r="G7" s="2" t="s">
-        <v>134</v>
+        <v>155</v>
       </c>
       <c r="H7" s="1"/>
     </row>
-    <row r="8" spans="1:8" ht="60" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:8" ht="60">
       <c r="A8" t="s">
-        <v>135</v>
+        <v>156</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>128</v>
+        <v>149</v>
       </c>
       <c r="C8" s="1" t="s">
         <v>10</v>
@@ -15506,16 +15577,16 @@
         <v>33</v>
       </c>
       <c r="G8" s="2" t="s">
-        <v>136</v>
+        <v>157</v>
       </c>
       <c r="H8" s="1"/>
     </row>
-    <row r="9" spans="1:8" ht="105" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:8" ht="105">
       <c r="A9" t="s">
-        <v>137</v>
+        <v>158</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>138</v>
+        <v>159</v>
       </c>
       <c r="C9" s="1" t="s">
         <v>10</v>
@@ -15530,13 +15601,13 @@
         <v>33</v>
       </c>
       <c r="G9" s="2" t="s">
-        <v>139</v>
+        <v>160</v>
       </c>
       <c r="H9" s="1"/>
     </row>
-    <row r="10" spans="1:8" ht="45" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:8" ht="45">
       <c r="A10" t="s">
-        <v>140</v>
+        <v>161</v>
       </c>
       <c r="B10" s="1" t="s">
         <v>50</v>
@@ -15548,19 +15619,19 @@
         <v>27</v>
       </c>
       <c r="E10" s="3" t="s">
-        <v>141</v>
+        <v>162</v>
       </c>
       <c r="F10" s="1" t="s">
         <v>37</v>
       </c>
       <c r="G10" s="2" t="s">
-        <v>142</v>
+        <v>163</v>
       </c>
       <c r="H10" s="1"/>
     </row>
-    <row r="11" spans="1:8" ht="60" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:8" ht="60">
       <c r="A11" t="s">
-        <v>143</v>
+        <v>164</v>
       </c>
       <c r="B11" s="1" t="s">
         <v>50</v>
@@ -15575,22 +15646,22 @@
         <v>12</v>
       </c>
       <c r="F11" s="1" t="s">
-        <v>144</v>
+        <v>165</v>
       </c>
       <c r="G11" s="2" t="s">
-        <v>145</v>
+        <v>166</v>
       </c>
       <c r="H11" s="1"/>
     </row>
-    <row r="12" spans="1:8" ht="45" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:8" ht="45">
       <c r="A12" t="s">
-        <v>146</v>
+        <v>167</v>
       </c>
       <c r="B12" s="1" t="s">
         <v>50</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>110</v>
+        <v>131</v>
       </c>
       <c r="D12" s="3" t="s">
         <v>27</v>
@@ -15602,13 +15673,13 @@
         <v>37</v>
       </c>
       <c r="G12" s="2" t="s">
-        <v>147</v>
+        <v>168</v>
       </c>
       <c r="H12" s="1"/>
     </row>
-    <row r="13" spans="1:8" ht="60" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:8" ht="60">
       <c r="A13" t="s">
-        <v>148</v>
+        <v>169</v>
       </c>
       <c r="B13" s="1" t="s">
         <v>50</v>
@@ -15626,15 +15697,15 @@
         <v>37</v>
       </c>
       <c r="G13" s="2" t="s">
-        <v>149</v>
+        <v>170</v>
       </c>
       <c r="H13" s="1" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="14" spans="1:8" ht="45" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:8" ht="45">
       <c r="A14" t="s">
-        <v>150</v>
+        <v>171</v>
       </c>
       <c r="B14" s="1" t="s">
         <v>50</v>
@@ -15649,93 +15720,93 @@
         <v>12</v>
       </c>
       <c r="F14" s="1" t="s">
-        <v>101</v>
+        <v>122</v>
       </c>
       <c r="G14" s="2" t="s">
-        <v>151</v>
+        <v>172</v>
       </c>
       <c r="H14" s="1" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="15" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:8" ht="30">
       <c r="A15" t="s">
-        <v>152</v>
+        <v>173</v>
       </c>
       <c r="B15" s="1" t="s">
         <v>50</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>110</v>
+        <v>131</v>
       </c>
       <c r="D15" s="1" t="s">
         <v>11</v>
       </c>
       <c r="E15" s="3" t="s">
-        <v>141</v>
+        <v>162</v>
       </c>
       <c r="F15" s="1" t="s">
-        <v>153</v>
+        <v>174</v>
       </c>
       <c r="G15" t="s">
-        <v>154</v>
+        <v>175</v>
       </c>
       <c r="H15" s="1" t="s">
-        <v>155</v>
+        <v>176</v>
       </c>
     </row>
-    <row r="16" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:8" ht="30">
       <c r="A16" t="s">
-        <v>156</v>
+        <v>177</v>
       </c>
       <c r="B16" s="1" t="s">
         <v>50</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>110</v>
+        <v>131</v>
       </c>
       <c r="D16" s="1" t="s">
         <v>11</v>
       </c>
       <c r="E16" s="3" t="s">
-        <v>141</v>
+        <v>162</v>
       </c>
       <c r="F16" s="1" t="s">
         <v>37</v>
       </c>
       <c r="G16" s="2" t="s">
-        <v>157</v>
+        <v>178</v>
       </c>
       <c r="H16" s="1" t="s">
-        <v>158</v>
+        <v>179</v>
       </c>
     </row>
-    <row r="17" spans="1:8" ht="75" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:8" ht="75">
       <c r="A17" t="s">
-        <v>159</v>
+        <v>180</v>
       </c>
       <c r="B17" s="1" t="s">
         <v>50</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>110</v>
+        <v>131</v>
       </c>
       <c r="D17" s="1" t="s">
         <v>56</v>
       </c>
       <c r="E17" s="3" t="s">
-        <v>141</v>
+        <v>162</v>
       </c>
       <c r="F17" s="1" t="s">
         <v>37</v>
       </c>
       <c r="G17" s="2" t="s">
-        <v>160</v>
+        <v>181</v>
       </c>
     </row>
-    <row r="18" spans="1:8" ht="45" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:8" ht="45">
       <c r="A18" t="s">
-        <v>161</v>
+        <v>182</v>
       </c>
       <c r="B18" s="1" t="s">
         <v>55</v>
@@ -15750,18 +15821,18 @@
         <v>12</v>
       </c>
       <c r="F18" s="1" t="s">
-        <v>101</v>
+        <v>122</v>
       </c>
       <c r="G18" s="2" t="s">
-        <v>162</v>
+        <v>183</v>
       </c>
       <c r="H18" s="1" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="19" spans="1:8" ht="45" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:8" ht="45">
       <c r="A19" t="s">
-        <v>163</v>
+        <v>184</v>
       </c>
       <c r="B19" s="1" t="s">
         <v>82</v>
@@ -15779,18 +15850,18 @@
         <v>37</v>
       </c>
       <c r="G19" s="2" t="s">
-        <v>164</v>
+        <v>185</v>
       </c>
     </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:8">
       <c r="A20" t="s">
-        <v>165</v>
+        <v>186</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>91</v>
+        <v>110</v>
       </c>
       <c r="C20" t="s">
-        <v>92</v>
+        <v>111</v>
       </c>
       <c r="D20" s="1" t="s">
         <v>11</v>
@@ -15802,23 +15873,62 @@
         <v>37</v>
       </c>
       <c r="G20" t="s">
-        <v>166</v>
+        <v>187</v>
+      </c>
+      <c r="H20" t="s">
+        <v>188</v>
       </c>
     </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:8" ht="72.75">
       <c r="A21" t="s">
-        <v>167</v>
+        <v>189</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>91</v>
+        <v>110</v>
+      </c>
+      <c r="C21" t="s">
+        <v>111</v>
+      </c>
+      <c r="D21" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E21" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="F21" t="s">
+        <v>37</v>
+      </c>
+      <c r="G21" t="s">
+        <v>190</v>
+      </c>
+      <c r="H21" s="2" t="s">
+        <v>191</v>
       </c>
     </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:8">
       <c r="A22" t="s">
-        <v>168</v>
+        <v>192</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>91</v>
+        <v>110</v>
+      </c>
+      <c r="C22" t="s">
+        <v>111</v>
+      </c>
+      <c r="D22" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E22" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="F22" t="s">
+        <v>37</v>
+      </c>
+      <c r="G22" t="s">
+        <v>193</v>
+      </c>
+      <c r="H22" t="s">
+        <v>71</v>
       </c>
     </row>
   </sheetData>
@@ -15832,11 +15942,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4AD31DF0-270A-4D26-B4BC-9FB8557FE966}">
   <dimension ref="A1:H13"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A7" workbookViewId="0">
       <selection activeCell="F20" sqref="F20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="26.85546875" customWidth="1"/>
     <col min="2" max="5" width="12.42578125" customWidth="1"/>
@@ -15845,7 +15955,7 @@
     <col min="8" max="8" width="46" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -15871,9 +15981,9 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8" ht="30">
       <c r="A2" t="s">
-        <v>169</v>
+        <v>194</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>26</v>
@@ -15885,24 +15995,24 @@
         <v>56</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>170</v>
+        <v>195</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>101</v>
+        <v>122</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>171</v>
+        <v>196</v>
       </c>
       <c r="H2" s="1" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="3" spans="1:8" ht="45" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:8" ht="45">
       <c r="A3" t="s">
-        <v>172</v>
+        <v>197</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>128</v>
+        <v>149</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>10</v>
@@ -15911,21 +16021,21 @@
         <v>56</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>111</v>
+        <v>132</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>173</v>
+        <v>198</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>174</v>
+        <v>199</v>
       </c>
     </row>
-    <row r="4" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:8" ht="30">
       <c r="A4" t="s">
-        <v>175</v>
+        <v>200</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>128</v>
+        <v>149</v>
       </c>
       <c r="C4" s="1" t="s">
         <v>10</v>
@@ -15934,24 +16044,24 @@
         <v>56</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>111</v>
+        <v>132</v>
       </c>
       <c r="F4" t="s">
-        <v>153</v>
+        <v>174</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>176</v>
+        <v>201</v>
       </c>
       <c r="H4" s="1" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="5" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:8" ht="30">
       <c r="A5" t="s">
-        <v>177</v>
+        <v>202</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>128</v>
+        <v>149</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>10</v>
@@ -15960,50 +16070,50 @@
         <v>56</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>111</v>
+        <v>132</v>
       </c>
       <c r="F5" t="s">
-        <v>178</v>
+        <v>203</v>
       </c>
       <c r="G5" s="2" t="s">
-        <v>179</v>
+        <v>204</v>
       </c>
       <c r="H5" s="1" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="6" spans="1:8" ht="45" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:8" ht="45">
       <c r="A6" t="s">
-        <v>180</v>
+        <v>205</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>128</v>
+        <v>149</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>181</v>
+        <v>206</v>
       </c>
       <c r="D6" s="1" t="s">
         <v>11</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>111</v>
+        <v>132</v>
       </c>
       <c r="F6" t="s">
-        <v>182</v>
+        <v>207</v>
       </c>
       <c r="G6" s="2" t="s">
-        <v>183</v>
+        <v>208</v>
       </c>
       <c r="H6" s="1" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="7" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:8" ht="30">
       <c r="A7" t="s">
-        <v>184</v>
+        <v>209</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>128</v>
+        <v>149</v>
       </c>
       <c r="C7" s="1" t="s">
         <v>10</v>
@@ -16015,18 +16125,18 @@
         <v>12</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>173</v>
+        <v>198</v>
       </c>
       <c r="G7" t="s">
-        <v>185</v>
+        <v>210</v>
       </c>
       <c r="H7" s="1" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:8">
       <c r="A8" t="s">
-        <v>186</v>
+        <v>211</v>
       </c>
       <c r="B8" s="1" t="s">
         <v>50</v>
@@ -16041,18 +16151,18 @@
         <v>12</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>101</v>
+        <v>122</v>
       </c>
       <c r="G8" t="s">
-        <v>187</v>
+        <v>212</v>
       </c>
       <c r="H8" s="1" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:8">
       <c r="A9" t="s">
-        <v>188</v>
+        <v>213</v>
       </c>
       <c r="B9" s="1" t="s">
         <v>50</v>
@@ -16067,18 +16177,18 @@
         <v>12</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>101</v>
+        <v>122</v>
       </c>
       <c r="G9" t="s">
-        <v>189</v>
+        <v>214</v>
       </c>
       <c r="H9" s="1" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:8">
       <c r="A10" t="s">
-        <v>190</v>
+        <v>215</v>
       </c>
       <c r="B10" s="1" t="s">
         <v>50</v>
@@ -16093,18 +16203,18 @@
         <v>12</v>
       </c>
       <c r="F10" s="1" t="s">
-        <v>101</v>
+        <v>122</v>
       </c>
       <c r="G10" t="s">
-        <v>191</v>
+        <v>216</v>
       </c>
       <c r="H10" s="1" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:8">
       <c r="A11" t="s">
-        <v>192</v>
+        <v>217</v>
       </c>
       <c r="B11" s="1" t="s">
         <v>50</v>
@@ -16119,18 +16229,18 @@
         <v>12</v>
       </c>
       <c r="F11" s="1" t="s">
-        <v>101</v>
+        <v>122</v>
       </c>
       <c r="G11" t="s">
-        <v>193</v>
+        <v>218</v>
       </c>
       <c r="H11" s="1" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:8">
       <c r="A12" t="s">
-        <v>194</v>
+        <v>219</v>
       </c>
       <c r="B12" s="1" t="s">
         <v>50</v>
@@ -16145,18 +16255,18 @@
         <v>12</v>
       </c>
       <c r="F12" s="1" t="s">
-        <v>101</v>
+        <v>122</v>
       </c>
       <c r="G12" t="s">
-        <v>195</v>
+        <v>220</v>
       </c>
       <c r="H12" s="1" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="13" spans="1:8" ht="45" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:8" ht="45">
       <c r="A13" t="s">
-        <v>196</v>
+        <v>221</v>
       </c>
       <c r="B13" s="1" t="s">
         <v>50</v>
@@ -16171,10 +16281,10 @@
         <v>12</v>
       </c>
       <c r="F13" s="1" t="s">
-        <v>101</v>
+        <v>122</v>
       </c>
       <c r="G13" s="2" t="s">
-        <v>197</v>
+        <v>222</v>
       </c>
       <c r="H13" s="1" t="s">
         <v>71</v>
@@ -16189,11 +16299,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{17AC02F5-2786-470A-8C62-E1E8EFDA7700}">
   <dimension ref="A1:H17"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A6" workbookViewId="0">
+    <sheetView topLeftCell="A9" workbookViewId="0">
       <selection activeCell="D17" sqref="D17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="27.5703125" customWidth="1"/>
     <col min="2" max="3" width="11.7109375" customWidth="1"/>
@@ -16204,7 +16314,7 @@
     <col min="8" max="8" width="37" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -16230,9 +16340,9 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8" ht="30">
       <c r="A2" t="s">
-        <v>198</v>
+        <v>223</v>
       </c>
       <c r="B2" t="s">
         <v>26</v>
@@ -16241,24 +16351,24 @@
         <v>10</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>100</v>
+        <v>121</v>
       </c>
       <c r="E2" s="1" t="s">
         <v>12</v>
       </c>
       <c r="F2" s="3" t="s">
-        <v>199</v>
+        <v>224</v>
       </c>
       <c r="G2" t="s">
-        <v>200</v>
+        <v>225</v>
       </c>
       <c r="H2" s="3" t="s">
-        <v>201</v>
+        <v>226</v>
       </c>
     </row>
-    <row r="3" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:8" ht="30">
       <c r="A3" t="s">
-        <v>202</v>
+        <v>227</v>
       </c>
       <c r="B3" t="s">
         <v>26</v>
@@ -16267,24 +16377,24 @@
         <v>10</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>100</v>
+        <v>121</v>
       </c>
       <c r="E3" s="1" t="s">
         <v>12</v>
       </c>
       <c r="F3" s="3" t="s">
-        <v>199</v>
+        <v>224</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>203</v>
+        <v>228</v>
       </c>
       <c r="H3" s="3" t="s">
-        <v>204</v>
+        <v>229</v>
       </c>
     </row>
-    <row r="4" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:8" ht="30">
       <c r="A4" s="2" t="s">
-        <v>205</v>
+        <v>230</v>
       </c>
       <c r="B4" t="s">
         <v>26</v>
@@ -16293,27 +16403,27 @@
         <v>10</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>100</v>
+        <v>121</v>
       </c>
       <c r="E4" s="1" t="s">
         <v>12</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>206</v>
+        <v>231</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>207</v>
+        <v>232</v>
       </c>
       <c r="H4" s="3" t="s">
-        <v>208</v>
+        <v>233</v>
       </c>
     </row>
-    <row r="5" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:8" ht="30">
       <c r="A5" t="s">
-        <v>209</v>
+        <v>234</v>
       </c>
       <c r="B5" t="s">
-        <v>128</v>
+        <v>149</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>10</v>
@@ -16325,21 +16435,21 @@
         <v>57</v>
       </c>
       <c r="F5" s="3" t="s">
-        <v>210</v>
+        <v>235</v>
       </c>
       <c r="G5" s="2" t="s">
-        <v>211</v>
+        <v>236</v>
       </c>
       <c r="H5" s="1" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="6" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:8" ht="30">
       <c r="A6" t="s">
-        <v>212</v>
+        <v>237</v>
       </c>
       <c r="B6" t="s">
-        <v>128</v>
+        <v>149</v>
       </c>
       <c r="C6" s="1" t="s">
         <v>10</v>
@@ -16351,47 +16461,47 @@
         <v>57</v>
       </c>
       <c r="F6" s="3" t="s">
-        <v>213</v>
+        <v>238</v>
       </c>
       <c r="G6" s="2" t="s">
-        <v>214</v>
+        <v>239</v>
       </c>
       <c r="H6" s="3" t="s">
-        <v>215</v>
+        <v>240</v>
       </c>
     </row>
-    <row r="7" spans="1:8" ht="45" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:8" ht="45">
       <c r="A7" s="2" t="s">
-        <v>216</v>
+        <v>241</v>
       </c>
       <c r="B7" t="s">
-        <v>138</v>
+        <v>159</v>
       </c>
       <c r="C7" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>100</v>
+        <v>121</v>
       </c>
       <c r="E7" s="1" t="s">
         <v>12</v>
       </c>
       <c r="F7" s="3" t="s">
-        <v>217</v>
+        <v>242</v>
       </c>
       <c r="G7" s="2" t="s">
-        <v>218</v>
+        <v>243</v>
       </c>
       <c r="H7" s="3" t="s">
-        <v>219</v>
+        <v>244</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:8">
       <c r="A8" t="s">
-        <v>220</v>
+        <v>245</v>
       </c>
       <c r="B8" t="s">
-        <v>138</v>
+        <v>159</v>
       </c>
       <c r="C8" s="1" t="s">
         <v>10</v>
@@ -16400,21 +16510,21 @@
         <v>11</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>170</v>
+        <v>195</v>
       </c>
       <c r="F8" s="1" t="s">
         <v>33</v>
       </c>
       <c r="G8" t="s">
-        <v>221</v>
+        <v>246</v>
       </c>
       <c r="H8" s="1" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="9" spans="1:8" ht="60" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:8" ht="60">
       <c r="A9" t="s">
-        <v>222</v>
+        <v>247</v>
       </c>
       <c r="B9" t="s">
         <v>50</v>
@@ -16429,18 +16539,18 @@
         <v>57</v>
       </c>
       <c r="F9" s="3" t="s">
-        <v>223</v>
+        <v>248</v>
       </c>
       <c r="G9" s="2" t="s">
-        <v>224</v>
+        <v>249</v>
       </c>
       <c r="H9" s="3" t="s">
-        <v>225</v>
+        <v>250</v>
       </c>
     </row>
-    <row r="10" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:8" ht="30">
       <c r="A10" t="s">
-        <v>226</v>
+        <v>251</v>
       </c>
       <c r="B10" t="s">
         <v>50</v>
@@ -16452,21 +16562,21 @@
         <v>11</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>111</v>
+        <v>132</v>
       </c>
       <c r="F10" s="3" t="s">
-        <v>227</v>
+        <v>252</v>
       </c>
       <c r="G10" s="2" t="s">
-        <v>228</v>
+        <v>253</v>
       </c>
       <c r="H10" s="3" t="s">
-        <v>229</v>
+        <v>254</v>
       </c>
     </row>
-    <row r="11" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:8" ht="30">
       <c r="A11" t="s">
-        <v>230</v>
+        <v>255</v>
       </c>
       <c r="B11" t="s">
         <v>50</v>
@@ -16478,21 +16588,21 @@
         <v>27</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>231</v>
+        <v>256</v>
       </c>
       <c r="F11" s="3" t="s">
-        <v>227</v>
+        <v>252</v>
       </c>
       <c r="G11" s="2" t="s">
-        <v>232</v>
+        <v>257</v>
       </c>
       <c r="H11" s="3" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:8">
       <c r="A12" t="s">
-        <v>233</v>
+        <v>258</v>
       </c>
       <c r="B12" t="s">
         <v>55</v>
@@ -16501,7 +16611,7 @@
         <v>10</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>121</v>
+        <v>142</v>
       </c>
       <c r="E12" s="1" t="s">
         <v>28</v>
@@ -16510,15 +16620,15 @@
         <v>69</v>
       </c>
       <c r="G12" t="s">
-        <v>234</v>
+        <v>259</v>
       </c>
       <c r="H12" s="1" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="13" spans="1:8" ht="45" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:8" ht="45">
       <c r="A13" t="s">
-        <v>235</v>
+        <v>260</v>
       </c>
       <c r="B13" t="s">
         <v>82</v>
@@ -16527,7 +16637,7 @@
         <v>10</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>100</v>
+        <v>121</v>
       </c>
       <c r="E13" s="1" t="s">
         <v>12</v>
@@ -16536,69 +16646,69 @@
         <v>37</v>
       </c>
       <c r="G13" s="2" t="s">
-        <v>236</v>
+        <v>261</v>
       </c>
     </row>
-    <row r="14" spans="1:8" ht="45" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:8" ht="45">
       <c r="A14" t="s">
-        <v>237</v>
+        <v>262</v>
       </c>
       <c r="B14" t="s">
-        <v>16</v>
+        <v>85</v>
       </c>
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>238</v>
+        <v>263</v>
       </c>
       <c r="E14" s="1" t="s">
         <v>12</v>
       </c>
       <c r="F14" s="1" t="s">
-        <v>206</v>
+        <v>231</v>
       </c>
       <c r="G14" s="2" t="s">
-        <v>239</v>
+        <v>264</v>
       </c>
     </row>
-    <row r="15" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:8" ht="30">
       <c r="A15" s="4" t="s">
-        <v>240</v>
+        <v>265</v>
       </c>
       <c r="B15" s="4" t="s">
-        <v>16</v>
+        <v>85</v>
       </c>
       <c r="F15" s="1" t="s">
         <v>65</v>
       </c>
       <c r="G15" s="2" t="s">
-        <v>343</v>
+        <v>266</v>
       </c>
     </row>
-    <row r="16" spans="1:8" ht="90" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:8" ht="90">
       <c r="A16" s="4" t="s">
-        <v>241</v>
+        <v>267</v>
       </c>
       <c r="B16" s="4" t="s">
-        <v>16</v>
+        <v>85</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>344</v>
+        <v>268</v>
       </c>
       <c r="F16" s="1" t="s">
         <v>65</v>
       </c>
       <c r="G16" s="2" t="s">
-        <v>345</v>
+        <v>269</v>
       </c>
     </row>
-    <row r="17" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:7" ht="45">
       <c r="A17" s="4" t="s">
-        <v>242</v>
+        <v>270</v>
       </c>
       <c r="B17" s="4" t="s">
-        <v>16</v>
+        <v>85</v>
       </c>
       <c r="C17" s="1" t="s">
         <v>10</v>
@@ -16607,7 +16717,7 @@
         <v>37</v>
       </c>
       <c r="G17" s="2" t="s">
-        <v>346</v>
+        <v>271</v>
       </c>
     </row>
   </sheetData>
@@ -16620,11 +16730,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F4534AC4-4849-4F7D-9BF9-260BE31EF745}">
   <dimension ref="A1:H23"/>
   <sheetViews>
-    <sheetView topLeftCell="A12" workbookViewId="0">
-      <selection activeCell="B23" sqref="B23"/>
+    <sheetView topLeftCell="A15" workbookViewId="0">
+      <selection activeCell="H23" sqref="H23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="27.85546875" customWidth="1"/>
     <col min="2" max="5" width="13.42578125" customWidth="1"/>
@@ -16633,7 +16743,7 @@
     <col min="8" max="8" width="82.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -16659,9 +16769,9 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8" ht="30">
       <c r="A2" t="s">
-        <v>243</v>
+        <v>272</v>
       </c>
       <c r="B2" t="s">
         <v>26</v>
@@ -16676,18 +16786,18 @@
         <v>57</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>101</v>
+        <v>122</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>244</v>
+        <v>273</v>
       </c>
       <c r="H2" s="1" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="3" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:8" ht="30">
       <c r="A3" t="s">
-        <v>245</v>
+        <v>274</v>
       </c>
       <c r="B3" t="s">
         <v>26</v>
@@ -16702,18 +16812,18 @@
         <v>57</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>101</v>
+        <v>122</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>246</v>
+        <v>275</v>
       </c>
       <c r="H3" s="1" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="4" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:8" ht="30">
       <c r="A4" t="s">
-        <v>247</v>
+        <v>276</v>
       </c>
       <c r="B4" t="s">
         <v>26</v>
@@ -16728,18 +16838,18 @@
         <v>57</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>101</v>
+        <v>122</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>248</v>
+        <v>277</v>
       </c>
       <c r="H4" s="1" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="5" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:8" ht="30">
       <c r="A5" t="s">
-        <v>249</v>
+        <v>278</v>
       </c>
       <c r="B5" t="s">
         <v>50</v>
@@ -16748,24 +16858,24 @@
         <v>10</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>100</v>
+        <v>121</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>250</v>
+        <v>279</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>101</v>
+        <v>122</v>
       </c>
       <c r="G5" s="2" t="s">
-        <v>251</v>
+        <v>280</v>
       </c>
       <c r="H5" s="1" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="6" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:8" ht="30">
       <c r="A6" t="s">
-        <v>252</v>
+        <v>281</v>
       </c>
       <c r="B6" t="s">
         <v>50</v>
@@ -16777,21 +16887,21 @@
         <v>11</v>
       </c>
       <c r="E6" t="s">
-        <v>111</v>
+        <v>132</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>101</v>
+        <v>122</v>
       </c>
       <c r="G6" s="2" t="s">
-        <v>253</v>
+        <v>282</v>
       </c>
       <c r="H6" s="1" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="7" spans="1:8" ht="45" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:8" ht="45">
       <c r="A7" t="s">
-        <v>254</v>
+        <v>283</v>
       </c>
       <c r="B7" t="s">
         <v>50</v>
@@ -16800,30 +16910,30 @@
         <v>10</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>100</v>
+        <v>121</v>
       </c>
       <c r="E7" t="s">
-        <v>170</v>
+        <v>195</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>101</v>
+        <v>122</v>
       </c>
       <c r="G7" s="2" t="s">
-        <v>255</v>
+        <v>284</v>
       </c>
       <c r="H7" s="1" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="8" spans="1:8" ht="45" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:8" ht="45">
       <c r="A8" t="s">
-        <v>256</v>
+        <v>285</v>
       </c>
       <c r="B8" t="s">
         <v>50</v>
       </c>
       <c r="C8" t="s">
-        <v>110</v>
+        <v>131</v>
       </c>
       <c r="D8" t="s">
         <v>11</v>
@@ -16835,21 +16945,21 @@
         <v>33</v>
       </c>
       <c r="G8" s="2" t="s">
-        <v>257</v>
+        <v>286</v>
       </c>
       <c r="H8" s="1" t="s">
-        <v>258</v>
+        <v>287</v>
       </c>
     </row>
-    <row r="9" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:8" ht="30">
       <c r="A9" t="s">
-        <v>259</v>
+        <v>288</v>
       </c>
       <c r="B9" t="s">
         <v>50</v>
       </c>
       <c r="C9" t="s">
-        <v>110</v>
+        <v>131</v>
       </c>
       <c r="D9" s="2" t="s">
         <v>11</v>
@@ -16861,21 +16971,21 @@
         <v>33</v>
       </c>
       <c r="G9" s="2" t="s">
-        <v>260</v>
+        <v>289</v>
       </c>
       <c r="H9" s="1" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="10" spans="1:8" ht="60" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:8" ht="60">
       <c r="A10" t="s">
-        <v>261</v>
+        <v>290</v>
       </c>
       <c r="B10" t="s">
         <v>50</v>
       </c>
       <c r="C10" t="s">
-        <v>110</v>
+        <v>131</v>
       </c>
       <c r="D10" s="2" t="s">
         <v>11</v>
@@ -16887,18 +16997,18 @@
         <v>33</v>
       </c>
       <c r="G10" s="2" t="s">
-        <v>262</v>
+        <v>291</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:8">
       <c r="A11" t="s">
-        <v>263</v>
+        <v>292</v>
       </c>
       <c r="B11" t="s">
         <v>50</v>
       </c>
       <c r="C11" t="s">
-        <v>110</v>
+        <v>131</v>
       </c>
       <c r="D11" s="2" t="s">
         <v>11</v>
@@ -16907,18 +17017,18 @@
         <v>28</v>
       </c>
       <c r="F11" s="1" t="s">
-        <v>264</v>
+        <v>293</v>
       </c>
       <c r="G11" t="s">
-        <v>265</v>
+        <v>294</v>
       </c>
       <c r="H11" s="1" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="12" spans="1:8" ht="45" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:8" ht="45">
       <c r="A12" t="s">
-        <v>266</v>
+        <v>295</v>
       </c>
       <c r="B12" t="s">
         <v>50</v>
@@ -16936,171 +17046,171 @@
         <v>37</v>
       </c>
       <c r="G12" s="2" t="s">
-        <v>267</v>
+        <v>296</v>
       </c>
     </row>
-    <row r="13" spans="1:8" ht="45" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:8" ht="45">
       <c r="A13" t="s">
-        <v>268</v>
+        <v>297</v>
       </c>
       <c r="B13" t="s">
         <v>50</v>
       </c>
       <c r="C13" t="s">
-        <v>110</v>
+        <v>131</v>
       </c>
       <c r="D13" s="2" t="s">
         <v>11</v>
       </c>
       <c r="E13" t="s">
-        <v>111</v>
+        <v>132</v>
       </c>
       <c r="F13" s="3" t="s">
-        <v>213</v>
+        <v>238</v>
       </c>
       <c r="G13" s="2" t="s">
-        <v>269</v>
+        <v>298</v>
       </c>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:8">
       <c r="A14" t="s">
-        <v>270</v>
+        <v>299</v>
       </c>
       <c r="B14" t="s">
         <v>50</v>
       </c>
       <c r="C14" t="s">
-        <v>110</v>
+        <v>131</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>121</v>
+        <v>142</v>
       </c>
       <c r="E14" t="s">
-        <v>111</v>
+        <v>132</v>
       </c>
       <c r="F14" s="1" t="s">
-        <v>101</v>
+        <v>122</v>
       </c>
       <c r="G14" t="s">
-        <v>271</v>
+        <v>300</v>
       </c>
       <c r="H14" s="1" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="15" spans="1:8" ht="45" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:8" ht="45">
       <c r="A15" t="s">
-        <v>272</v>
+        <v>301</v>
       </c>
       <c r="B15" t="s">
         <v>50</v>
       </c>
       <c r="C15" t="s">
-        <v>110</v>
+        <v>131</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>121</v>
+        <v>142</v>
       </c>
       <c r="E15" t="s">
-        <v>111</v>
+        <v>132</v>
       </c>
       <c r="F15" s="1" t="s">
-        <v>101</v>
+        <v>122</v>
       </c>
       <c r="G15" s="2" t="s">
-        <v>273</v>
+        <v>302</v>
       </c>
       <c r="H15" s="1" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="16" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:8" ht="30">
       <c r="A16" t="s">
-        <v>274</v>
+        <v>303</v>
       </c>
       <c r="B16" t="s">
         <v>50</v>
       </c>
       <c r="C16" t="s">
-        <v>110</v>
+        <v>131</v>
       </c>
       <c r="D16" s="2" t="s">
         <v>27</v>
       </c>
       <c r="E16" t="s">
-        <v>111</v>
+        <v>132</v>
       </c>
       <c r="F16" s="1" t="s">
-        <v>101</v>
+        <v>122</v>
       </c>
       <c r="G16" t="s">
-        <v>275</v>
+        <v>304</v>
       </c>
       <c r="H16" s="1" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="17" spans="1:8" ht="45" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:8" ht="45">
       <c r="A17" t="s">
-        <v>276</v>
+        <v>305</v>
       </c>
       <c r="B17" t="s">
         <v>50</v>
       </c>
       <c r="C17" t="s">
-        <v>110</v>
+        <v>131</v>
       </c>
       <c r="D17" s="2" t="s">
         <v>11</v>
       </c>
       <c r="E17" t="s">
-        <v>111</v>
+        <v>132</v>
       </c>
       <c r="F17" s="1" t="s">
-        <v>101</v>
+        <v>122</v>
       </c>
       <c r="G17" s="2" t="s">
-        <v>277</v>
+        <v>306</v>
       </c>
       <c r="H17" s="1" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="18" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:8" ht="30">
       <c r="A18" t="s">
-        <v>278</v>
+        <v>307</v>
       </c>
       <c r="B18" t="s">
         <v>50</v>
       </c>
       <c r="C18" t="s">
-        <v>110</v>
+        <v>131</v>
       </c>
       <c r="D18" s="2" t="s">
         <v>11</v>
       </c>
       <c r="E18" t="s">
+        <v>132</v>
+      </c>
+      <c r="F18" s="2" t="s">
+        <v>308</v>
+      </c>
+      <c r="G18" s="2" t="s">
+        <v>309</v>
+      </c>
+      <c r="H18" s="1" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8">
+      <c r="A19" t="s">
+        <v>310</v>
+      </c>
+      <c r="B19" t="s">
+        <v>110</v>
+      </c>
+      <c r="C19" t="s">
         <v>111</v>
-      </c>
-      <c r="F18" s="2" t="s">
-        <v>279</v>
-      </c>
-      <c r="G18" s="2" t="s">
-        <v>280</v>
-      </c>
-      <c r="H18" s="1" t="s">
-        <v>225</v>
-      </c>
-    </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A19" t="s">
-        <v>281</v>
-      </c>
-      <c r="B19" t="s">
-        <v>91</v>
-      </c>
-      <c r="C19" t="s">
-        <v>92</v>
       </c>
       <c r="D19" s="2" t="s">
         <v>11</v>
@@ -17109,42 +17219,117 @@
         <v>12</v>
       </c>
       <c r="F19" t="s">
-        <v>282</v>
+        <v>311</v>
       </c>
       <c r="G19" t="s">
-        <v>283</v>
+        <v>312</v>
+      </c>
+      <c r="H19" t="s">
+        <v>71</v>
       </c>
     </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:8">
       <c r="A20" t="s">
-        <v>284</v>
+        <v>313</v>
       </c>
       <c r="B20" t="s">
-        <v>91</v>
+        <v>110</v>
+      </c>
+      <c r="C20" t="s">
+        <v>111</v>
+      </c>
+      <c r="D20" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="E20" t="s">
+        <v>12</v>
+      </c>
+      <c r="F20" t="s">
+        <v>314</v>
+      </c>
+      <c r="G20" t="s">
+        <v>315</v>
+      </c>
+      <c r="H20" t="s">
+        <v>71</v>
       </c>
     </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:8" ht="29.25">
       <c r="A21" t="s">
-        <v>285</v>
+        <v>316</v>
       </c>
       <c r="B21" t="s">
-        <v>91</v>
+        <v>110</v>
+      </c>
+      <c r="C21" t="s">
+        <v>111</v>
+      </c>
+      <c r="D21" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="E21" t="s">
+        <v>12</v>
+      </c>
+      <c r="F21" t="s">
+        <v>314</v>
+      </c>
+      <c r="G21" s="2" t="s">
+        <v>317</v>
+      </c>
+      <c r="H21" t="s">
+        <v>71</v>
       </c>
     </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:8">
       <c r="A22" t="s">
-        <v>286</v>
+        <v>318</v>
       </c>
       <c r="B22" t="s">
-        <v>97</v>
+        <v>117</v>
+      </c>
+      <c r="C22" t="s">
+        <v>319</v>
+      </c>
+      <c r="D22" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="E22" t="s">
+        <v>12</v>
+      </c>
+      <c r="F22" t="s">
+        <v>314</v>
+      </c>
+      <c r="G22" t="s">
+        <v>320</v>
+      </c>
+      <c r="H22" t="s">
+        <v>71</v>
       </c>
     </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:8">
       <c r="A23" t="s">
-        <v>287</v>
+        <v>321</v>
       </c>
       <c r="B23" t="s">
-        <v>97</v>
+        <v>117</v>
+      </c>
+      <c r="C23" t="s">
+        <v>319</v>
+      </c>
+      <c r="D23" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="E23" t="s">
+        <v>12</v>
+      </c>
+      <c r="F23" t="s">
+        <v>314</v>
+      </c>
+      <c r="G23" t="s">
+        <v>322</v>
+      </c>
+      <c r="H23" t="s">
+        <v>71</v>
       </c>
     </row>
   </sheetData>
@@ -17157,11 +17342,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1E85A7E7-1F88-48B7-8A47-A844F306AD2E}">
   <dimension ref="A1:H18"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="F23" sqref="F23"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="G20" sqref="G20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="27.28515625" customWidth="1"/>
     <col min="2" max="2" width="12.5703125" customWidth="1"/>
@@ -17172,7 +17357,7 @@
     <col min="8" max="8" width="81.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -17186,7 +17371,7 @@
         <v>3</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>288</v>
+        <v>323</v>
       </c>
       <c r="F1" s="1" t="s">
         <v>5</v>
@@ -17198,9 +17383,9 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8">
       <c r="A2" t="s">
-        <v>289</v>
+        <v>324</v>
       </c>
       <c r="B2" t="s">
         <v>26</v>
@@ -17215,18 +17400,18 @@
         <v>12</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>153</v>
+        <v>174</v>
       </c>
       <c r="G2" t="s">
-        <v>290</v>
+        <v>325</v>
       </c>
       <c r="H2" s="1" t="s">
-        <v>291</v>
+        <v>326</v>
       </c>
     </row>
-    <row r="3" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:8" ht="30">
       <c r="A3" t="s">
-        <v>292</v>
+        <v>327</v>
       </c>
       <c r="B3" t="s">
         <v>26</v>
@@ -17241,50 +17426,50 @@
         <v>12</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>153</v>
+        <v>174</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>293</v>
+        <v>328</v>
       </c>
       <c r="H3" s="1" t="s">
-        <v>294</v>
+        <v>329</v>
       </c>
     </row>
-    <row r="4" spans="1:8" ht="60" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:8" ht="60">
       <c r="A4" t="s">
-        <v>295</v>
+        <v>330</v>
       </c>
       <c r="B4" t="s">
-        <v>128</v>
+        <v>149</v>
       </c>
       <c r="C4" t="s">
         <v>10</v>
       </c>
       <c r="D4" t="s">
-        <v>100</v>
+        <v>121</v>
       </c>
       <c r="E4" t="s">
-        <v>111</v>
+        <v>132</v>
       </c>
       <c r="F4" s="1" t="s">
         <v>37</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>296</v>
+        <v>331</v>
       </c>
     </row>
-    <row r="5" spans="1:8" ht="45" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:8" ht="45">
       <c r="A5" t="s">
-        <v>297</v>
+        <v>332</v>
       </c>
       <c r="B5" t="s">
-        <v>128</v>
+        <v>149</v>
       </c>
       <c r="C5" t="s">
         <v>10</v>
       </c>
       <c r="D5" t="s">
-        <v>100</v>
+        <v>121</v>
       </c>
       <c r="E5" t="s">
         <v>12</v>
@@ -17293,15 +17478,15 @@
         <v>37</v>
       </c>
       <c r="G5" s="2" t="s">
-        <v>298</v>
+        <v>333</v>
       </c>
     </row>
-    <row r="6" spans="1:8" ht="60" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:8" ht="60">
       <c r="A6" t="s">
-        <v>299</v>
+        <v>334</v>
       </c>
       <c r="B6" t="s">
-        <v>128</v>
+        <v>149</v>
       </c>
       <c r="C6" t="s">
         <v>10</v>
@@ -17310,27 +17495,27 @@
         <v>56</v>
       </c>
       <c r="E6" t="s">
-        <v>111</v>
+        <v>132</v>
       </c>
       <c r="F6" s="1" t="s">
         <v>33</v>
       </c>
       <c r="G6" s="2" t="s">
-        <v>300</v>
+        <v>335</v>
       </c>
     </row>
-    <row r="7" spans="1:8" ht="90" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:8" ht="90">
       <c r="A7" t="s">
-        <v>301</v>
+        <v>336</v>
       </c>
       <c r="B7" t="s">
-        <v>128</v>
+        <v>149</v>
       </c>
       <c r="C7" t="s">
         <v>10</v>
       </c>
       <c r="D7" t="s">
-        <v>100</v>
+        <v>121</v>
       </c>
       <c r="E7" t="s">
         <v>12</v>
@@ -17339,21 +17524,21 @@
         <v>65</v>
       </c>
       <c r="G7" s="2" t="s">
-        <v>302</v>
+        <v>337</v>
       </c>
     </row>
-    <row r="8" spans="1:8" ht="60" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:8" ht="60">
       <c r="A8" t="s">
-        <v>303</v>
+        <v>338</v>
       </c>
       <c r="B8" t="s">
-        <v>128</v>
+        <v>149</v>
       </c>
       <c r="C8" t="s">
         <v>10</v>
       </c>
       <c r="D8" t="s">
-        <v>100</v>
+        <v>121</v>
       </c>
       <c r="E8" t="s">
         <v>12</v>
@@ -17362,21 +17547,21 @@
         <v>65</v>
       </c>
       <c r="G8" s="2" t="s">
-        <v>304</v>
+        <v>339</v>
       </c>
     </row>
-    <row r="9" spans="1:8" ht="45" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:8" ht="45">
       <c r="A9" t="s">
-        <v>305</v>
+        <v>340</v>
       </c>
       <c r="B9" t="s">
-        <v>128</v>
+        <v>149</v>
       </c>
       <c r="C9" t="s">
         <v>10</v>
       </c>
       <c r="D9" t="s">
-        <v>100</v>
+        <v>121</v>
       </c>
       <c r="E9" t="s">
         <v>12</v>
@@ -17385,12 +17570,12 @@
         <v>65</v>
       </c>
       <c r="G9" s="2" t="s">
-        <v>306</v>
+        <v>341</v>
       </c>
     </row>
-    <row r="10" spans="1:8" ht="90" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:8" ht="90">
       <c r="A10" t="s">
-        <v>307</v>
+        <v>342</v>
       </c>
       <c r="B10" t="s">
         <v>50</v>
@@ -17399,7 +17584,7 @@
         <v>10</v>
       </c>
       <c r="D10" t="s">
-        <v>100</v>
+        <v>121</v>
       </c>
       <c r="E10" t="s">
         <v>12</v>
@@ -17408,41 +17593,41 @@
         <v>33</v>
       </c>
       <c r="G10" s="2" t="s">
-        <v>308</v>
+        <v>343</v>
       </c>
     </row>
-    <row r="11" spans="1:8" ht="45" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:8" ht="45">
       <c r="A11" t="s">
-        <v>309</v>
+        <v>344</v>
       </c>
       <c r="B11" t="s">
         <v>50</v>
       </c>
       <c r="C11" t="s">
-        <v>110</v>
+        <v>131</v>
       </c>
       <c r="D11" t="s">
-        <v>121</v>
+        <v>142</v>
       </c>
       <c r="E11" t="s">
-        <v>310</v>
+        <v>345</v>
       </c>
       <c r="F11" s="1" t="s">
         <v>37</v>
       </c>
       <c r="G11" s="2" t="s">
-        <v>311</v>
+        <v>346</v>
       </c>
     </row>
-    <row r="12" spans="1:8" ht="74.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:8" ht="74.25" customHeight="1">
       <c r="A12" t="s">
-        <v>312</v>
+        <v>347</v>
       </c>
       <c r="B12" t="s">
         <v>50</v>
       </c>
       <c r="C12" t="s">
-        <v>110</v>
+        <v>131</v>
       </c>
       <c r="D12" t="s">
         <v>11</v>
@@ -17454,18 +17639,18 @@
         <v>13</v>
       </c>
       <c r="G12" s="2" t="s">
-        <v>313</v>
+        <v>348</v>
       </c>
     </row>
-    <row r="13" spans="1:8" ht="45" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:8" ht="45">
       <c r="A13" t="s">
-        <v>314</v>
+        <v>349</v>
       </c>
       <c r="B13" t="s">
         <v>50</v>
       </c>
       <c r="C13" t="s">
-        <v>315</v>
+        <v>350</v>
       </c>
       <c r="D13" t="s">
         <v>11</v>
@@ -17477,12 +17662,12 @@
         <v>65</v>
       </c>
       <c r="G13" s="2" t="s">
-        <v>316</v>
+        <v>351</v>
       </c>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:8">
       <c r="A14" t="s">
-        <v>317</v>
+        <v>352</v>
       </c>
       <c r="B14" t="s">
         <v>50</v>
@@ -17500,12 +17685,12 @@
         <v>37</v>
       </c>
       <c r="G14" t="s">
-        <v>318</v>
+        <v>353</v>
       </c>
     </row>
-    <row r="15" spans="1:8" ht="45" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:8" ht="45">
       <c r="A15" t="s">
-        <v>319</v>
+        <v>354</v>
       </c>
       <c r="B15" t="s">
         <v>82</v>
@@ -17514,7 +17699,7 @@
         <v>10</v>
       </c>
       <c r="D15" t="s">
-        <v>100</v>
+        <v>121</v>
       </c>
       <c r="E15" t="s">
         <v>12</v>
@@ -17523,31 +17708,85 @@
         <v>37</v>
       </c>
       <c r="G15" s="2" t="s">
-        <v>320</v>
+        <v>355</v>
       </c>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:8">
       <c r="A16" t="s">
-        <v>321</v>
+        <v>356</v>
       </c>
       <c r="B16" t="s">
-        <v>91</v>
+        <v>110</v>
+      </c>
+      <c r="C16" t="s">
+        <v>111</v>
+      </c>
+      <c r="D16" t="s">
+        <v>11</v>
+      </c>
+      <c r="E16" t="s">
+        <v>12</v>
+      </c>
+      <c r="F16" t="s">
+        <v>135</v>
+      </c>
+      <c r="G16" t="s">
+        <v>357</v>
+      </c>
+      <c r="H16" t="s">
+        <v>71</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:8">
       <c r="A17" t="s">
-        <v>322</v>
+        <v>358</v>
       </c>
       <c r="B17" t="s">
-        <v>91</v>
+        <v>110</v>
+      </c>
+      <c r="C17" t="s">
+        <v>111</v>
+      </c>
+      <c r="D17" t="s">
+        <v>11</v>
+      </c>
+      <c r="E17" t="s">
+        <v>12</v>
+      </c>
+      <c r="F17" t="s">
+        <v>135</v>
+      </c>
+      <c r="G17" t="s">
+        <v>359</v>
+      </c>
+      <c r="H17" t="s">
+        <v>360</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:8">
       <c r="A18" t="s">
-        <v>323</v>
+        <v>361</v>
       </c>
       <c r="B18" t="s">
-        <v>91</v>
+        <v>110</v>
+      </c>
+      <c r="C18" t="s">
+        <v>111</v>
+      </c>
+      <c r="D18" t="s">
+        <v>11</v>
+      </c>
+      <c r="E18" t="s">
+        <v>12</v>
+      </c>
+      <c r="F18" t="s">
+        <v>135</v>
+      </c>
+      <c r="G18" t="s">
+        <v>362</v>
+      </c>
+      <c r="H18" t="s">
+        <v>71</v>
       </c>
     </row>
   </sheetData>
